--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -20,11 +20,11 @@
     <definedName name="environmentalsample">'cv_sample'!$Q$1:$Q$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="614">
   <si>
     <t>alias</t>
   </si>
@@ -451,6 +451,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -550,6 +562,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -667,6 +697,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -674,6 +707,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2373,10 +2409,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2417,10 +2453,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2467,7 +2503,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2484,7 +2520,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2501,7 +2537,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2518,7 +2554,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2535,7 +2571,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2552,7 +2588,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2569,7 +2605,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2586,7 +2622,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2603,7 +2639,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2617,7 +2653,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2631,7 +2667,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2645,7 +2681,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2659,7 +2695,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2669,8 +2705,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2680,8 +2719,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2691,8 +2733,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2702,8 +2747,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2714,7 +2762,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2725,7 +2773,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2736,7 +2784,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2747,7 +2795,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2758,7 +2806,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2769,7 +2817,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2780,7 +2828,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2791,7 +2839,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2802,7 +2850,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2813,7 +2861,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2824,7 +2872,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2835,7 +2883,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2846,7 +2894,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2857,7 +2905,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2865,7 +2913,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2873,7 +2921,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2881,7 +2929,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2889,7 +2937,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2897,7 +2945,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2905,7 +2953,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2913,7 +2961,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2921,7 +2969,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2929,7 +2977,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2937,176 +2985,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3131,27 +3219,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3174,122 +3262,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3316,204 +3404,204 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -3539,1443 +3627,1443 @@
   <sheetData>
     <row r="1" spans="14:17">
       <c r="N1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="14:17">
       <c r="N2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="Q2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="14:17">
       <c r="N3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="14:17">
       <c r="N4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="14:17">
       <c r="N5" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="14:17">
       <c r="N6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="14:17">
       <c r="N7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="14:17">
       <c r="N8" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="14:17">
       <c r="N9" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="14:17">
       <c r="N10" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="14:17">
       <c r="N11" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="14:17">
       <c r="N12" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="14:17">
       <c r="N13" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="14:17">
       <c r="N14" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="14:17">
       <c r="N15" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="14:17">
       <c r="N16" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="14:14">
       <c r="N18" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="14:14">
       <c r="N21" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="14:14">
       <c r="N22" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="14:14">
       <c r="N25" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="14:14">
       <c r="N26" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="14:14">
       <c r="N27" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="14:14">
       <c r="N28" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="14:14">
       <c r="N29" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="14:14">
       <c r="N30" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="14:14">
       <c r="N31" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="14:14">
       <c r="N32" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="14:14">
       <c r="N40" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="14:14">
       <c r="N44" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="14:14">
       <c r="N45" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="14:14">
       <c r="N46" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="14:14">
       <c r="N47" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="14:14">
       <c r="N48" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="14:14">
       <c r="N76" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="14:14">
       <c r="N77" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="14:14">
       <c r="N78" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="14:14">
       <c r="N79" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="14:14">
       <c r="N80" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="14:14">
       <c r="N81" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="14:14">
       <c r="N82" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="14:14">
       <c r="N87" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="14:14">
       <c r="N88" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="14:14">
       <c r="N89" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="14:14">
       <c r="N90" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="14:14">
       <c r="N91" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="14:14">
       <c r="N92" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="14:14">
       <c r="N93" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="14:14">
       <c r="N94" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="14:14">
       <c r="N95" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="14:14">
       <c r="N96" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="14:14">
       <c r="N97" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="14:14">
       <c r="N98" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="14:14">
       <c r="N99" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="14:14">
       <c r="N100" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="14:14">
       <c r="N101" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="14:14">
       <c r="N102" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="14:14">
       <c r="N103" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="14:14">
       <c r="N104" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="14:14">
       <c r="N105" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="14:14">
       <c r="N106" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="14:14">
       <c r="N107" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="14:14">
       <c r="N108" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="14:14">
       <c r="N109" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="14:14">
       <c r="N110" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="14:14">
       <c r="N111" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="14:14">
       <c r="N112" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="14:14">
       <c r="N113" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="14:14">
       <c r="N114" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="14:14">
       <c r="N115" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="14:14">
       <c r="N116" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="14:14">
       <c r="N117" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="14:14">
       <c r="N118" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="14:14">
       <c r="N119" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="14:14">
       <c r="N120" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="14:14">
       <c r="N121" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="14:14">
       <c r="N122" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="14:14">
       <c r="N123" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="14:14">
       <c r="N124" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="14:14">
       <c r="N125" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="14:14">
       <c r="N126" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="14:14">
       <c r="N127" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="14:14">
       <c r="N128" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="14:14">
       <c r="N129" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="14:14">
       <c r="N130" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="14:14">
       <c r="N131" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="14:14">
       <c r="N132" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="14:14">
       <c r="N133" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="14:14">
       <c r="N134" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="14:14">
       <c r="N135" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="14:14">
       <c r="N136" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="14:14">
       <c r="N137" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="14:14">
       <c r="N138" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="14:14">
       <c r="N139" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="14:14">
       <c r="N140" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="14:14">
       <c r="N141" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="14:14">
       <c r="N142" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="14:14">
       <c r="N143" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="14:14">
       <c r="N144" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="14:14">
       <c r="N145" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="14:14">
       <c r="N146" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147" spans="14:14">
       <c r="N147" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="14:14">
       <c r="N148" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="14:14">
       <c r="N149" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="14:14">
       <c r="N150" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="14:14">
       <c r="N151" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="14:14">
       <c r="N152" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="14:14">
       <c r="N153" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="14:14">
       <c r="N154" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="14:14">
       <c r="N155" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="156" spans="14:14">
       <c r="N156" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="157" spans="14:14">
       <c r="N157" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="14:14">
       <c r="N158" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="14:14">
       <c r="N159" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="14:14">
       <c r="N160" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="14:14">
       <c r="N161" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="14:14">
       <c r="N162" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163" spans="14:14">
       <c r="N163" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="14:14">
       <c r="N164" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="14:14">
       <c r="N165" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="14:14">
       <c r="N166" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="14:14">
       <c r="N167" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="14:14">
       <c r="N168" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169" spans="14:14">
       <c r="N169" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="14:14">
       <c r="N170" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="14:14">
       <c r="N171" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="14:14">
       <c r="N172" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="14:14">
       <c r="N173" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="14:14">
       <c r="N174" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="14:14">
       <c r="N175" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176" spans="14:14">
       <c r="N176" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="177" spans="14:14">
       <c r="N177" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178" spans="14:14">
       <c r="N178" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="14:14">
       <c r="N179" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="14:14">
       <c r="N180" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" spans="14:14">
       <c r="N181" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="14:14">
       <c r="N182" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="14:14">
       <c r="N183" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="14:14">
       <c r="N184" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="14:14">
       <c r="N185" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186" spans="14:14">
       <c r="N186" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="187" spans="14:14">
       <c r="N187" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="188" spans="14:14">
       <c r="N188" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="189" spans="14:14">
       <c r="N189" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="190" spans="14:14">
       <c r="N190" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="14:14">
       <c r="N191" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="192" spans="14:14">
       <c r="N192" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="193" spans="14:14">
       <c r="N193" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="194" spans="14:14">
       <c r="N194" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="195" spans="14:14">
       <c r="N195" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="196" spans="14:14">
       <c r="N196" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="197" spans="14:14">
       <c r="N197" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="198" spans="14:14">
       <c r="N198" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="199" spans="14:14">
       <c r="N199" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="200" spans="14:14">
       <c r="N200" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="201" spans="14:14">
       <c r="N201" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="202" spans="14:14">
       <c r="N202" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="14:14">
       <c r="N203" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204" spans="14:14">
       <c r="N204" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="14:14">
       <c r="N205" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="206" spans="14:14">
       <c r="N206" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="207" spans="14:14">
       <c r="N207" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="208" spans="14:14">
       <c r="N208" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="209" spans="14:14">
       <c r="N209" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="210" spans="14:14">
       <c r="N210" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="14:14">
       <c r="N211" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="14:14">
       <c r="N212" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="14:14">
       <c r="N213" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="14:14">
       <c r="N214" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="14:14">
       <c r="N215" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="14:14">
       <c r="N216" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="217" spans="14:14">
       <c r="N217" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="14:14">
       <c r="N218" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="219" spans="14:14">
       <c r="N219" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="220" spans="14:14">
       <c r="N220" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="221" spans="14:14">
       <c r="N221" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="14:14">
       <c r="N222" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="14:14">
       <c r="N223" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="14:14">
       <c r="N224" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="14:14">
       <c r="N225" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="226" spans="14:14">
       <c r="N226" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="227" spans="14:14">
       <c r="N227" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="228" spans="14:14">
       <c r="N228" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="229" spans="14:14">
       <c r="N229" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="230" spans="14:14">
       <c r="N230" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="231" spans="14:14">
       <c r="N231" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="232" spans="14:14">
       <c r="N232" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="233" spans="14:14">
       <c r="N233" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="234" spans="14:14">
       <c r="N234" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="14:14">
       <c r="N235" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="14:14">
       <c r="N236" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="237" spans="14:14">
       <c r="N237" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="238" spans="14:14">
       <c r="N238" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="239" spans="14:14">
       <c r="N239" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="240" spans="14:14">
       <c r="N240" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="241" spans="14:14">
       <c r="N241" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="242" spans="14:14">
       <c r="N242" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="243" spans="14:14">
       <c r="N243" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="244" spans="14:14">
       <c r="N244" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="245" spans="14:14">
       <c r="N245" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="14:14">
       <c r="N246" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="14:14">
       <c r="N247" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248" spans="14:14">
       <c r="N248" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="249" spans="14:14">
       <c r="N249" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="250" spans="14:14">
       <c r="N250" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251" spans="14:14">
       <c r="N251" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="252" spans="14:14">
       <c r="N252" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="253" spans="14:14">
       <c r="N253" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="254" spans="14:14">
       <c r="N254" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="255" spans="14:14">
       <c r="N255" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="256" spans="14:14">
       <c r="N256" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="257" spans="14:14">
       <c r="N257" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="258" spans="14:14">
       <c r="N258" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="259" spans="14:14">
       <c r="N259" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="260" spans="14:14">
       <c r="N260" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="261" spans="14:14">
       <c r="N261" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="262" spans="14:14">
       <c r="N262" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="263" spans="14:14">
       <c r="N263" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="264" spans="14:14">
       <c r="N264" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="265" spans="14:14">
       <c r="N265" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="14:14">
       <c r="N266" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="14:14">
       <c r="N267" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="14:14">
       <c r="N268" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="14:14">
       <c r="N269" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="270" spans="14:14">
       <c r="N270" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="271" spans="14:14">
       <c r="N271" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="14:14">
       <c r="N272" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="273" spans="14:14">
       <c r="N273" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="274" spans="14:14">
       <c r="N274" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="275" spans="14:14">
       <c r="N275" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="276" spans="14:14">
       <c r="N276" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277" spans="14:14">
       <c r="N277" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="14:14">
       <c r="N278" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="279" spans="14:14">
       <c r="N279" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="14:14">
       <c r="N280" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="281" spans="14:14">
       <c r="N281" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="282" spans="14:14">
       <c r="N282" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="14:14">
       <c r="N283" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284" spans="14:14">
       <c r="N284" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="285" spans="14:14">
       <c r="N285" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286" spans="14:14">
       <c r="N286" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="287" spans="14:14">
       <c r="N287" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -100,7 +100,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$Q$1:$Q$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="615">
   <si>
     <t>alias</t>
   </si>
@@ -1078,6 +1078,9 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1747,7 +1750,7 @@
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -3437,67 +3440,67 @@
         <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
@@ -3541,67 +3544,67 @@
         <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -3619,7 +3622,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="N1:Q287"/>
+  <dimension ref="N1:Q288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3630,7 +3633,7 @@
         <v>283</v>
       </c>
       <c r="Q1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="14:17">
@@ -3638,7 +3641,7 @@
         <v>284</v>
       </c>
       <c r="Q2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="14:17">
@@ -5064,6 +5067,11 @@
     <row r="287" spans="14:14">
       <c r="N287" t="s">
         <v>569</v>
+      </c>
+    </row>
+    <row r="288" spans="14:14">
+      <c r="N288" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -1075,10 +1075,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="616">
   <si>
     <t>alias</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3407,204 +3410,204 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -3630,1448 +3633,1448 @@
   <sheetData>
     <row r="1" spans="14:17">
       <c r="N1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="14:17">
       <c r="N2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="14:17">
       <c r="N3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="14:17">
       <c r="N4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="14:17">
       <c r="N5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="14:17">
       <c r="N6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="14:17">
       <c r="N7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="14:17">
       <c r="N8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="14:17">
       <c r="N9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="14:17">
       <c r="N10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="14:17">
       <c r="N11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="14:17">
       <c r="N12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="14:17">
       <c r="N13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="14:17">
       <c r="N14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="14:17">
       <c r="N15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="14:17">
       <c r="N16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="14:14">
       <c r="N17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="14:14">
       <c r="N18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="14:14">
       <c r="N21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="14:14">
       <c r="N22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="14:14">
       <c r="N25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="14:14">
       <c r="N26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="14:14">
       <c r="N27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="14:14">
       <c r="N28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="14:14">
       <c r="N29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="14:14">
       <c r="N30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="14:14">
       <c r="N31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="14:14">
       <c r="N32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="14:14">
       <c r="N40" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="14:14">
       <c r="N41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="14:14">
       <c r="N42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="14:14">
       <c r="N43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="14:14">
       <c r="N44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="14:14">
       <c r="N45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="14:14">
       <c r="N46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="14:14">
       <c r="N47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="14:14">
       <c r="N48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="14:14">
       <c r="N76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="14:14">
       <c r="N77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="14:14">
       <c r="N78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="14:14">
       <c r="N79" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="14:14">
       <c r="N80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="14:14">
       <c r="N81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="14:14">
       <c r="N82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="14:14">
       <c r="N87" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="14:14">
       <c r="N88" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="14:14">
       <c r="N89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="14:14">
       <c r="N90" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="14:14">
       <c r="N91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="14:14">
       <c r="N92" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="14:14">
       <c r="N93" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="14:14">
       <c r="N94" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="14:14">
       <c r="N95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="14:14">
       <c r="N96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="14:14">
       <c r="N97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="14:14">
       <c r="N98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="14:14">
       <c r="N99" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="14:14">
       <c r="N100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="14:14">
       <c r="N101" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="14:14">
       <c r="N102" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="14:14">
       <c r="N103" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="14:14">
       <c r="N104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="14:14">
       <c r="N105" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="14:14">
       <c r="N106" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="14:14">
       <c r="N107" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="14:14">
       <c r="N108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="14:14">
       <c r="N109" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="14:14">
       <c r="N110" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="14:14">
       <c r="N111" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="14:14">
       <c r="N112" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="14:14">
       <c r="N113" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="14:14">
       <c r="N114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" spans="14:14">
       <c r="N115" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="14:14">
       <c r="N116" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="14:14">
       <c r="N117" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="14:14">
       <c r="N118" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="14:14">
       <c r="N119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="14:14">
       <c r="N120" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="14:14">
       <c r="N121" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="14:14">
       <c r="N122" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="14:14">
       <c r="N123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="14:14">
       <c r="N124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="14:14">
       <c r="N125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="14:14">
       <c r="N126" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="14:14">
       <c r="N127" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="14:14">
       <c r="N128" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="14:14">
       <c r="N129" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="14:14">
       <c r="N130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="14:14">
       <c r="N131" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="14:14">
       <c r="N132" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="14:14">
       <c r="N133" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="14:14">
       <c r="N134" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" spans="14:14">
       <c r="N135" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="14:14">
       <c r="N136" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="14:14">
       <c r="N137" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="14:14">
       <c r="N138" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="14:14">
       <c r="N139" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="14:14">
       <c r="N140" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="14:14">
       <c r="N141" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="14:14">
       <c r="N142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="14:14">
       <c r="N143" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="14:14">
       <c r="N144" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="14:14">
       <c r="N145" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="14:14">
       <c r="N146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="14:14">
       <c r="N147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="14:14">
       <c r="N148" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="14:14">
       <c r="N149" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="14:14">
       <c r="N150" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="14:14">
       <c r="N151" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="14:14">
       <c r="N152" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="14:14">
       <c r="N153" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="14:14">
       <c r="N154" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="14:14">
       <c r="N155" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="156" spans="14:14">
       <c r="N156" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="157" spans="14:14">
       <c r="N157" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="14:14">
       <c r="N158" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="14:14">
       <c r="N159" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="14:14">
       <c r="N160" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="14:14">
       <c r="N161" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="14:14">
       <c r="N162" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="14:14">
       <c r="N163" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="164" spans="14:14">
       <c r="N164" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="165" spans="14:14">
       <c r="N165" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="14:14">
       <c r="N166" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="167" spans="14:14">
       <c r="N167" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="14:14">
       <c r="N168" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="14:14">
       <c r="N169" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="14:14">
       <c r="N170" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="14:14">
       <c r="N171" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="14:14">
       <c r="N172" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="14:14">
       <c r="N173" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="14:14">
       <c r="N174" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="14:14">
       <c r="N175" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="176" spans="14:14">
       <c r="N176" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="14:14">
       <c r="N177" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="14:14">
       <c r="N178" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="14:14">
       <c r="N179" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="180" spans="14:14">
       <c r="N180" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181" spans="14:14">
       <c r="N181" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="14:14">
       <c r="N182" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="14:14">
       <c r="N183" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="14:14">
       <c r="N184" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="14:14">
       <c r="N185" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="14:14">
       <c r="N186" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="187" spans="14:14">
       <c r="N187" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="188" spans="14:14">
       <c r="N188" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="14:14">
       <c r="N189" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="190" spans="14:14">
       <c r="N190" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="191" spans="14:14">
       <c r="N191" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="14:14">
       <c r="N192" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="14:14">
       <c r="N193" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="14:14">
       <c r="N194" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="14:14">
       <c r="N195" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="196" spans="14:14">
       <c r="N196" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="14:14">
       <c r="N197" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="14:14">
       <c r="N198" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="14:14">
       <c r="N199" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="14:14">
       <c r="N200" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="14:14">
       <c r="N201" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="14:14">
       <c r="N202" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="14:14">
       <c r="N203" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="14:14">
       <c r="N204" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="14:14">
       <c r="N205" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="14:14">
       <c r="N206" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="14:14">
       <c r="N207" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="14:14">
       <c r="N208" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="14:14">
       <c r="N209" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="14:14">
       <c r="N210" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="14:14">
       <c r="N211" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="14:14">
       <c r="N212" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="213" spans="14:14">
       <c r="N213" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="214" spans="14:14">
       <c r="N214" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="215" spans="14:14">
       <c r="N215" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="216" spans="14:14">
       <c r="N216" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="14:14">
       <c r="N217" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="14:14">
       <c r="N218" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="14:14">
       <c r="N219" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="14:14">
       <c r="N220" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="221" spans="14:14">
       <c r="N221" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="222" spans="14:14">
       <c r="N222" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223" spans="14:14">
       <c r="N223" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="224" spans="14:14">
       <c r="N224" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="225" spans="14:14">
       <c r="N225" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="226" spans="14:14">
       <c r="N226" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="227" spans="14:14">
       <c r="N227" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="14:14">
       <c r="N228" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="229" spans="14:14">
       <c r="N229" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="230" spans="14:14">
       <c r="N230" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="231" spans="14:14">
       <c r="N231" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="232" spans="14:14">
       <c r="N232" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="233" spans="14:14">
       <c r="N233" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="234" spans="14:14">
       <c r="N234" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="235" spans="14:14">
       <c r="N235" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="236" spans="14:14">
       <c r="N236" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="237" spans="14:14">
       <c r="N237" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="238" spans="14:14">
       <c r="N238" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="239" spans="14:14">
       <c r="N239" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="240" spans="14:14">
       <c r="N240" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="241" spans="14:14">
       <c r="N241" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="242" spans="14:14">
       <c r="N242" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="243" spans="14:14">
       <c r="N243" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="244" spans="14:14">
       <c r="N244" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="14:14">
       <c r="N245" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="246" spans="14:14">
       <c r="N246" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="247" spans="14:14">
       <c r="N247" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="14:14">
       <c r="N248" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="249" spans="14:14">
       <c r="N249" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="250" spans="14:14">
       <c r="N250" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251" spans="14:14">
       <c r="N251" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="252" spans="14:14">
       <c r="N252" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="253" spans="14:14">
       <c r="N253" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="254" spans="14:14">
       <c r="N254" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="255" spans="14:14">
       <c r="N255" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="256" spans="14:14">
       <c r="N256" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="257" spans="14:14">
       <c r="N257" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="258" spans="14:14">
       <c r="N258" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="259" spans="14:14">
       <c r="N259" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="260" spans="14:14">
       <c r="N260" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="261" spans="14:14">
       <c r="N261" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="262" spans="14:14">
       <c r="N262" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="263" spans="14:14">
       <c r="N263" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="264" spans="14:14">
       <c r="N264" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="14:14">
       <c r="N265" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="14:14">
       <c r="N266" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="267" spans="14:14">
       <c r="N267" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="14:14">
       <c r="N268" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="14:14">
       <c r="N269" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="270" spans="14:14">
       <c r="N270" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="271" spans="14:14">
       <c r="N271" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="272" spans="14:14">
       <c r="N272" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="273" spans="14:14">
       <c r="N273" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="274" spans="14:14">
       <c r="N274" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="275" spans="14:14">
       <c r="N275" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="14:14">
       <c r="N276" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277" spans="14:14">
       <c r="N277" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="278" spans="14:14">
       <c r="N278" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" spans="14:14">
       <c r="N279" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="280" spans="14:14">
       <c r="N280" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="281" spans="14:14">
       <c r="N281" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="282" spans="14:14">
       <c r="N282" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="283" spans="14:14">
       <c r="N283" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="14:14">
       <c r="N284" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="14:14">
       <c r="N285" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="286" spans="14:14">
       <c r="N286" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="287" spans="14:14">
       <c r="N287" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="288" spans="14:14">
       <c r="N288" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -112,7 +112,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -130,7 +130,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -17,9 +17,9 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="environmentalsample">'cv_sample'!$Q$1:$Q$2</definedName>
+    <definedName name="environmentalsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$N$1:$N$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="617">
   <si>
     <t>alias</t>
   </si>
@@ -886,6 +886,42 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>identified_by</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>environmental_sample</t>
+  </si>
+  <si>
+    <t>(Optional) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
+  </si>
+  <si>
+    <t>mating_type</t>
+  </si>
+  <si>
+    <t>(Optional) Mating type of the organism from which the sequence was obtained; mating type is used for prokaryotes, and for eukaryotes that undergo meiosis without sexually dimorphic gametes</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>(Optional) Sex of the organism from which the sample was obtained</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1714,6 +1750,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1754,42 +1793,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>identified_by</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>environmental_sample</t>
-  </si>
-  <si>
-    <t>(Optional) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
-  </si>
-  <si>
-    <t>mating_type</t>
-  </si>
-  <si>
-    <t>(Optional) Mating type of the organism from which the sequence was obtained; mating type is used for prokaryotes, and for eukaryotes that undergo meiosis without sexually dimorphic gametes</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>(Optional) Sex of the organism from which the sample was obtained</t>
   </si>
   <si>
     <t>lab_host</t>
@@ -3443,67 +3446,67 @@
         <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>572</v>
+        <v>284</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>574</v>
+        <v>286</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>576</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>580</v>
+        <v>292</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>582</v>
+        <v>294</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
@@ -3547,76 +3550,76 @@
         <v>283</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>573</v>
+        <v>285</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>575</v>
+        <v>287</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>577</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>581</v>
+        <v>293</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>583</v>
+        <v>295</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
+      <formula1>environmentalsample</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>geographiclocationcountryandorsea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
-      <formula1>environmentalsample</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3625,1456 +3628,1461 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="N1:Q288"/>
+  <dimension ref="P1:S289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="14:17">
-      <c r="N1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q1" t="s">
+    <row r="1" spans="16:19">
+      <c r="P1" t="s">
+        <v>288</v>
+      </c>
+      <c r="S1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="16:19">
+      <c r="P2" t="s">
+        <v>289</v>
+      </c>
+      <c r="S2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="16:19">
+      <c r="S3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="16:19">
+      <c r="S4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="16:19">
+      <c r="S5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="16:19">
+      <c r="S6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="16:19">
+      <c r="S7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="16:19">
+      <c r="S8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="16:19">
+      <c r="S9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="16:19">
+      <c r="S10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="16:19">
+      <c r="S11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="16:19">
+      <c r="S12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="16:19">
+      <c r="S13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="16:19">
+      <c r="S14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="16:19">
+      <c r="S15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="16:19">
+      <c r="S16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="19:19">
+      <c r="S17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="19:19">
+      <c r="S18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="19:19">
+      <c r="S19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="19:19">
+      <c r="S20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="19:19">
+      <c r="S21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="19:19">
+      <c r="S22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="19:19">
+      <c r="S23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="19:19">
+      <c r="S24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="19:19">
+      <c r="S25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="19:19">
+      <c r="S26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="19:19">
+      <c r="S27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="19:19">
+      <c r="S28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="19:19">
+      <c r="S29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="19:19">
+      <c r="S30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="19:19">
+      <c r="S31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="19:19">
+      <c r="S32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="19:19">
+      <c r="S33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="19:19">
+      <c r="S34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="19:19">
+      <c r="S35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="19:19">
+      <c r="S36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="19:19">
+      <c r="S37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="19:19">
+      <c r="S38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="19:19">
+      <c r="S39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="19:19">
+      <c r="S40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="19:19">
+      <c r="S41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42" spans="19:19">
+      <c r="S42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="19:19">
+      <c r="S43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="19:19">
+      <c r="S44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="19:19">
+      <c r="S45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="19:19">
+      <c r="S46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="19:19">
+      <c r="S47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="19:19">
+      <c r="S48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="19:19">
+      <c r="S49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="19:19">
+      <c r="S50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="19:19">
+      <c r="S51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="19:19">
+      <c r="S52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="19:19">
+      <c r="S53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="19:19">
+      <c r="S54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="19:19">
+      <c r="S55" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="19:19">
+      <c r="S56" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="57" spans="19:19">
+      <c r="S57" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="19:19">
+      <c r="S58" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="19:19">
+      <c r="S59" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="19:19">
+      <c r="S60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="19:19">
+      <c r="S61" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="19:19">
+      <c r="S62" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="19:19">
+      <c r="S63" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="19:19">
+      <c r="S64" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="19:19">
+      <c r="S65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="19:19">
+      <c r="S66" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="19:19">
+      <c r="S67" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="19:19">
+      <c r="S68" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69" spans="19:19">
+      <c r="S69" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="19:19">
+      <c r="S70" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="19:19">
+      <c r="S71" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="72" spans="19:19">
+      <c r="S72" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="19:19">
+      <c r="S73" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="19:19">
+      <c r="S74" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="19:19">
+      <c r="S75" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="19:19">
+      <c r="S76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="19:19">
+      <c r="S77" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="19:19">
+      <c r="S78" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="19:19">
+      <c r="S79" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="19:19">
+      <c r="S80" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="19:19">
+      <c r="S81" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="82" spans="19:19">
+      <c r="S82" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83" spans="19:19">
+      <c r="S83" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="19:19">
+      <c r="S84" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="19:19">
+      <c r="S85" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="86" spans="19:19">
+      <c r="S86" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="19:19">
+      <c r="S87" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="19:19">
+      <c r="S88" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="19:19">
+      <c r="S89" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="90" spans="19:19">
+      <c r="S90" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="19:19">
+      <c r="S91" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="19:19">
+      <c r="S92" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="19:19">
+      <c r="S93" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="19:19">
+      <c r="S94" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="19:19">
+      <c r="S95" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="96" spans="19:19">
+      <c r="S96" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="19:19">
+      <c r="S97" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="19:19">
+      <c r="S98" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" spans="19:19">
+      <c r="S99" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="19:19">
+      <c r="S100" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="101" spans="19:19">
+      <c r="S101" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="102" spans="19:19">
+      <c r="S102" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="19:19">
+      <c r="S103" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="19:19">
+      <c r="S104" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="19:19">
+      <c r="S105" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="19:19">
+      <c r="S106" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="19:19">
+      <c r="S107" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="108" spans="19:19">
+      <c r="S108" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="19:19">
+      <c r="S109" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="19:19">
+      <c r="S110" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="111" spans="19:19">
+      <c r="S111" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="19:19">
+      <c r="S112" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="19:19">
+      <c r="S113" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" spans="19:19">
+      <c r="S114" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="115" spans="19:19">
+      <c r="S115" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116" spans="19:19">
+      <c r="S116" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="19:19">
+      <c r="S117" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="19:19">
+      <c r="S118" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="119" spans="19:19">
+      <c r="S119" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="19:19">
+      <c r="S120" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="121" spans="19:19">
+      <c r="S121" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="122" spans="19:19">
+      <c r="S122" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="123" spans="19:19">
+      <c r="S123" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="19:19">
+      <c r="S124" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="125" spans="19:19">
+      <c r="S125" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="126" spans="19:19">
+      <c r="S126" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="19:19">
+      <c r="S127" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="19:19">
+      <c r="S128" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="19:19">
+      <c r="S129" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="130" spans="19:19">
+      <c r="S130" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="131" spans="19:19">
+      <c r="S131" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="132" spans="19:19">
+      <c r="S132" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="133" spans="19:19">
+      <c r="S133" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="134" spans="19:19">
+      <c r="S134" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" spans="19:19">
+      <c r="S135" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="136" spans="19:19">
+      <c r="S136" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="137" spans="19:19">
+      <c r="S137" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="138" spans="19:19">
+      <c r="S138" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="139" spans="19:19">
+      <c r="S139" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="140" spans="19:19">
+      <c r="S140" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" spans="19:19">
+      <c r="S141" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="142" spans="19:19">
+      <c r="S142" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="143" spans="19:19">
+      <c r="S143" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="144" spans="19:19">
+      <c r="S144" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="145" spans="19:19">
+      <c r="S145" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="146" spans="19:19">
+      <c r="S146" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="19:19">
+      <c r="S147" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="19:19">
+      <c r="S148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="19:19">
+      <c r="S149" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="150" spans="19:19">
+      <c r="S150" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="19:19">
+      <c r="S151" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="19:19">
+      <c r="S152" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="153" spans="19:19">
+      <c r="S153" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="154" spans="19:19">
+      <c r="S154" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="155" spans="19:19">
+      <c r="S155" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="19:19">
+      <c r="S156" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="19:19">
+      <c r="S157" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="19:19">
+      <c r="S158" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="159" spans="19:19">
+      <c r="S159" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="160" spans="19:19">
+      <c r="S160" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="161" spans="19:19">
+      <c r="S161" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="162" spans="19:19">
+      <c r="S162" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="163" spans="19:19">
+      <c r="S163" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="164" spans="19:19">
+      <c r="S164" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="165" spans="19:19">
+      <c r="S165" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="166" spans="19:19">
+      <c r="S166" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="167" spans="19:19">
+      <c r="S167" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="168" spans="19:19">
+      <c r="S168" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="169" spans="19:19">
+      <c r="S169" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="170" spans="19:19">
+      <c r="S170" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="171" spans="19:19">
+      <c r="S171" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="172" spans="19:19">
+      <c r="S172" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="173" spans="19:19">
+      <c r="S173" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="174" spans="19:19">
+      <c r="S174" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="175" spans="19:19">
+      <c r="S175" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="176" spans="19:19">
+      <c r="S176" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="177" spans="19:19">
+      <c r="S177" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="178" spans="19:19">
+      <c r="S178" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="179" spans="19:19">
+      <c r="S179" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="180" spans="19:19">
+      <c r="S180" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="181" spans="19:19">
+      <c r="S181" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="182" spans="19:19">
+      <c r="S182" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="183" spans="19:19">
+      <c r="S183" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="19:19">
+      <c r="S184" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="185" spans="19:19">
+      <c r="S185" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="19:19">
+      <c r="S186" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="187" spans="19:19">
+      <c r="S187" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="188" spans="19:19">
+      <c r="S188" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="189" spans="19:19">
+      <c r="S189" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="190" spans="19:19">
+      <c r="S190" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="191" spans="19:19">
+      <c r="S191" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="192" spans="19:19">
+      <c r="S192" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="193" spans="19:19">
+      <c r="S193" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="194" spans="19:19">
+      <c r="S194" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="195" spans="19:19">
+      <c r="S195" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="196" spans="19:19">
+      <c r="S196" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="197" spans="19:19">
+      <c r="S197" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="198" spans="19:19">
+      <c r="S198" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="199" spans="19:19">
+      <c r="S199" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="200" spans="19:19">
+      <c r="S200" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="201" spans="19:19">
+      <c r="S201" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="202" spans="19:19">
+      <c r="S202" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="203" spans="19:19">
+      <c r="S203" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="204" spans="19:19">
+      <c r="S204" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="205" spans="19:19">
+      <c r="S205" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="19:19">
+      <c r="S206" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="207" spans="19:19">
+      <c r="S207" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="208" spans="19:19">
+      <c r="S208" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="209" spans="19:19">
+      <c r="S209" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="210" spans="19:19">
+      <c r="S210" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="211" spans="19:19">
+      <c r="S211" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="212" spans="19:19">
+      <c r="S212" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="213" spans="19:19">
+      <c r="S213" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="214" spans="19:19">
+      <c r="S214" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="215" spans="19:19">
+      <c r="S215" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="216" spans="19:19">
+      <c r="S216" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="217" spans="19:19">
+      <c r="S217" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="218" spans="19:19">
+      <c r="S218" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="219" spans="19:19">
+      <c r="S219" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="220" spans="19:19">
+      <c r="S220" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="221" spans="19:19">
+      <c r="S221" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="222" spans="19:19">
+      <c r="S222" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="223" spans="19:19">
+      <c r="S223" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="224" spans="19:19">
+      <c r="S224" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="225" spans="19:19">
+      <c r="S225" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="226" spans="19:19">
+      <c r="S226" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="227" spans="19:19">
+      <c r="S227" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="228" spans="19:19">
+      <c r="S228" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="229" spans="19:19">
+      <c r="S229" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="230" spans="19:19">
+      <c r="S230" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="231" spans="19:19">
+      <c r="S231" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="232" spans="19:19">
+      <c r="S232" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="233" spans="19:19">
+      <c r="S233" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="234" spans="19:19">
+      <c r="S234" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="235" spans="19:19">
+      <c r="S235" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="236" spans="19:19">
+      <c r="S236" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="237" spans="19:19">
+      <c r="S237" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="238" spans="19:19">
+      <c r="S238" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="239" spans="19:19">
+      <c r="S239" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="240" spans="19:19">
+      <c r="S240" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="241" spans="19:19">
+      <c r="S241" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="242" spans="19:19">
+      <c r="S242" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="243" spans="19:19">
+      <c r="S243" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="244" spans="19:19">
+      <c r="S244" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="245" spans="19:19">
+      <c r="S245" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="246" spans="19:19">
+      <c r="S246" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="247" spans="19:19">
+      <c r="S247" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="248" spans="19:19">
+      <c r="S248" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="249" spans="19:19">
+      <c r="S249" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="250" spans="19:19">
+      <c r="S250" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="251" spans="19:19">
+      <c r="S251" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="252" spans="19:19">
+      <c r="S252" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="253" spans="19:19">
+      <c r="S253" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="254" spans="19:19">
+      <c r="S254" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="255" spans="19:19">
+      <c r="S255" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="256" spans="19:19">
+      <c r="S256" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="257" spans="19:19">
+      <c r="S257" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="258" spans="19:19">
+      <c r="S258" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="259" spans="19:19">
+      <c r="S259" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="260" spans="19:19">
+      <c r="S260" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="261" spans="19:19">
+      <c r="S261" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="262" spans="19:19">
+      <c r="S262" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="263" spans="19:19">
+      <c r="S263" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="264" spans="19:19">
+      <c r="S264" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="265" spans="19:19">
+      <c r="S265" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="266" spans="19:19">
+      <c r="S266" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="267" spans="19:19">
+      <c r="S267" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="268" spans="19:19">
+      <c r="S268" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="269" spans="19:19">
+      <c r="S269" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="270" spans="19:19">
+      <c r="S270" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="271" spans="19:19">
+      <c r="S271" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="272" spans="19:19">
+      <c r="S272" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="273" spans="19:19">
+      <c r="S273" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="274" spans="19:19">
+      <c r="S274" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="275" spans="19:19">
+      <c r="S275" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="276" spans="19:19">
+      <c r="S276" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="277" spans="19:19">
+      <c r="S277" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="278" spans="19:19">
+      <c r="S278" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="279" spans="19:19">
+      <c r="S279" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="280" spans="19:19">
+      <c r="S280" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="281" spans="19:19">
+      <c r="S281" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="282" spans="19:19">
+      <c r="S282" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="283" spans="19:19">
+      <c r="S283" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="14:17">
-      <c r="N2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q2" t="s">
+    <row r="284" spans="19:19">
+      <c r="S284" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="3" spans="14:17">
-      <c r="N3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="14:17">
-      <c r="N4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="14:17">
-      <c r="N5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="14:17">
-      <c r="N6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="14:17">
-      <c r="N7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="14:17">
-      <c r="N8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="14:17">
-      <c r="N9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="14:17">
-      <c r="N10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="14:17">
-      <c r="N11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="14:17">
-      <c r="N12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="14:17">
-      <c r="N13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="14:17">
-      <c r="N14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="14:17">
-      <c r="N15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="14:17">
-      <c r="N16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14">
-      <c r="N17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14">
-      <c r="N18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14">
-      <c r="N19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14">
-      <c r="N20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14">
-      <c r="N21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14">
-      <c r="N22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="14:14">
-      <c r="N25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14">
-      <c r="N26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="14:14">
-      <c r="N27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="14:14">
-      <c r="N28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="14:14">
-      <c r="N29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="14:14">
-      <c r="N30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="14:14">
-      <c r="N31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="14:14">
-      <c r="N32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14">
-      <c r="N33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="14:14">
-      <c r="N34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="35" spans="14:14">
-      <c r="N35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="14:14">
-      <c r="N36" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="14:14">
-      <c r="N37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="14:14">
-      <c r="N38" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="14:14">
-      <c r="N39" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="40" spans="14:14">
-      <c r="N40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="14:14">
-      <c r="N41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="42" spans="14:14">
-      <c r="N42" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="14:14">
-      <c r="N43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="14:14">
-      <c r="N44" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="14:14">
-      <c r="N45" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="14:14">
-      <c r="N46" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="14:14">
-      <c r="N47" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="14:14">
-      <c r="N48" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="14:14">
-      <c r="N53" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="14:14">
-      <c r="N54" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="55" spans="14:14">
-      <c r="N55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="14:14">
-      <c r="N56" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="14:14">
-      <c r="N57" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" spans="14:14">
-      <c r="N58" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="59" spans="14:14">
-      <c r="N59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="14:14">
-      <c r="N60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="14:14">
-      <c r="N61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="14:14">
-      <c r="N62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="14:14">
-      <c r="N63" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="64" spans="14:14">
-      <c r="N64" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14">
-      <c r="N66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="14:14">
-      <c r="N67" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="14:14">
-      <c r="N68" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="14:14">
-      <c r="N69" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="70" spans="14:14">
-      <c r="N70" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="14:14">
-      <c r="N71" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="14:14">
-      <c r="N72" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="73" spans="14:14">
-      <c r="N73" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="74" spans="14:14">
-      <c r="N74" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="14:14">
-      <c r="N75" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="76" spans="14:14">
-      <c r="N76" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="77" spans="14:14">
-      <c r="N77" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" spans="14:14">
-      <c r="N78" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="79" spans="14:14">
-      <c r="N79" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="80" spans="14:14">
-      <c r="N80" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="14:14">
-      <c r="N81" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="82" spans="14:14">
-      <c r="N82" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" spans="14:14">
-      <c r="N83" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="84" spans="14:14">
-      <c r="N84" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="85" spans="14:14">
-      <c r="N85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="14:14">
-      <c r="N86" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="87" spans="14:14">
-      <c r="N87" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="88" spans="14:14">
-      <c r="N88" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="89" spans="14:14">
-      <c r="N89" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="90" spans="14:14">
-      <c r="N90" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="91" spans="14:14">
-      <c r="N91" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="92" spans="14:14">
-      <c r="N92" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="93" spans="14:14">
-      <c r="N93" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="94" spans="14:14">
-      <c r="N94" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="95" spans="14:14">
-      <c r="N95" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="96" spans="14:14">
-      <c r="N96" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="14:14">
-      <c r="N97" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="98" spans="14:14">
-      <c r="N98" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="99" spans="14:14">
-      <c r="N99" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="100" spans="14:14">
-      <c r="N100" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="14:14">
-      <c r="N101" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="14:14">
-      <c r="N102" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="103" spans="14:14">
-      <c r="N103" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="104" spans="14:14">
-      <c r="N104" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="105" spans="14:14">
-      <c r="N105" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="106" spans="14:14">
-      <c r="N106" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" spans="14:14">
-      <c r="N107" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="14:14">
-      <c r="N108" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="109" spans="14:14">
-      <c r="N109" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="110" spans="14:14">
-      <c r="N110" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="14:14">
-      <c r="N111" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="112" spans="14:14">
-      <c r="N112" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="113" spans="14:14">
-      <c r="N113" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="114" spans="14:14">
-      <c r="N114" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="115" spans="14:14">
-      <c r="N115" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="116" spans="14:14">
-      <c r="N116" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="117" spans="14:14">
-      <c r="N117" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="118" spans="14:14">
-      <c r="N118" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="119" spans="14:14">
-      <c r="N119" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="120" spans="14:14">
-      <c r="N120" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="121" spans="14:14">
-      <c r="N121" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="122" spans="14:14">
-      <c r="N122" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="123" spans="14:14">
-      <c r="N123" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="124" spans="14:14">
-      <c r="N124" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="125" spans="14:14">
-      <c r="N125" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="126" spans="14:14">
-      <c r="N126" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="127" spans="14:14">
-      <c r="N127" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="128" spans="14:14">
-      <c r="N128" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="129" spans="14:14">
-      <c r="N129" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="130" spans="14:14">
-      <c r="N130" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="131" spans="14:14">
-      <c r="N131" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="132" spans="14:14">
-      <c r="N132" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="133" spans="14:14">
-      <c r="N133" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="134" spans="14:14">
-      <c r="N134" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="135" spans="14:14">
-      <c r="N135" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="136" spans="14:14">
-      <c r="N136" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="137" spans="14:14">
-      <c r="N137" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="138" spans="14:14">
-      <c r="N138" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="139" spans="14:14">
-      <c r="N139" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="140" spans="14:14">
-      <c r="N140" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="141" spans="14:14">
-      <c r="N141" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="142" spans="14:14">
-      <c r="N142" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="143" spans="14:14">
-      <c r="N143" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="144" spans="14:14">
-      <c r="N144" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="145" spans="14:14">
-      <c r="N145" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="146" spans="14:14">
-      <c r="N146" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="147" spans="14:14">
-      <c r="N147" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="148" spans="14:14">
-      <c r="N148" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="149" spans="14:14">
-      <c r="N149" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="150" spans="14:14">
-      <c r="N150" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="151" spans="14:14">
-      <c r="N151" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="152" spans="14:14">
-      <c r="N152" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="153" spans="14:14">
-      <c r="N153" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="154" spans="14:14">
-      <c r="N154" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="155" spans="14:14">
-      <c r="N155" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="156" spans="14:14">
-      <c r="N156" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="157" spans="14:14">
-      <c r="N157" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="158" spans="14:14">
-      <c r="N158" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="159" spans="14:14">
-      <c r="N159" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="14:14">
-      <c r="N160" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="161" spans="14:14">
-      <c r="N161" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="162" spans="14:14">
-      <c r="N162" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="163" spans="14:14">
-      <c r="N163" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="164" spans="14:14">
-      <c r="N164" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="165" spans="14:14">
-      <c r="N165" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="166" spans="14:14">
-      <c r="N166" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="167" spans="14:14">
-      <c r="N167" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="168" spans="14:14">
-      <c r="N168" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="169" spans="14:14">
-      <c r="N169" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="170" spans="14:14">
-      <c r="N170" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="171" spans="14:14">
-      <c r="N171" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="172" spans="14:14">
-      <c r="N172" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="173" spans="14:14">
-      <c r="N173" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="174" spans="14:14">
-      <c r="N174" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="175" spans="14:14">
-      <c r="N175" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="176" spans="14:14">
-      <c r="N176" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="177" spans="14:14">
-      <c r="N177" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="178" spans="14:14">
-      <c r="N178" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="179" spans="14:14">
-      <c r="N179" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="180" spans="14:14">
-      <c r="N180" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="181" spans="14:14">
-      <c r="N181" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="182" spans="14:14">
-      <c r="N182" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="183" spans="14:14">
-      <c r="N183" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="184" spans="14:14">
-      <c r="N184" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="185" spans="14:14">
-      <c r="N185" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="186" spans="14:14">
-      <c r="N186" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="187" spans="14:14">
-      <c r="N187" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="188" spans="14:14">
-      <c r="N188" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="189" spans="14:14">
-      <c r="N189" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="190" spans="14:14">
-      <c r="N190" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="191" spans="14:14">
-      <c r="N191" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="192" spans="14:14">
-      <c r="N192" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="193" spans="14:14">
-      <c r="N193" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="194" spans="14:14">
-      <c r="N194" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="195" spans="14:14">
-      <c r="N195" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="196" spans="14:14">
-      <c r="N196" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="197" spans="14:14">
-      <c r="N197" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="198" spans="14:14">
-      <c r="N198" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="199" spans="14:14">
-      <c r="N199" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="200" spans="14:14">
-      <c r="N200" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="201" spans="14:14">
-      <c r="N201" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="202" spans="14:14">
-      <c r="N202" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="203" spans="14:14">
-      <c r="N203" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="204" spans="14:14">
-      <c r="N204" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="205" spans="14:14">
-      <c r="N205" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="206" spans="14:14">
-      <c r="N206" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="207" spans="14:14">
-      <c r="N207" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="208" spans="14:14">
-      <c r="N208" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="209" spans="14:14">
-      <c r="N209" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="210" spans="14:14">
-      <c r="N210" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="211" spans="14:14">
-      <c r="N211" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="212" spans="14:14">
-      <c r="N212" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="213" spans="14:14">
-      <c r="N213" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="214" spans="14:14">
-      <c r="N214" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="215" spans="14:14">
-      <c r="N215" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="216" spans="14:14">
-      <c r="N216" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="217" spans="14:14">
-      <c r="N217" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="218" spans="14:14">
-      <c r="N218" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="219" spans="14:14">
-      <c r="N219" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="220" spans="14:14">
-      <c r="N220" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="221" spans="14:14">
-      <c r="N221" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="222" spans="14:14">
-      <c r="N222" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="223" spans="14:14">
-      <c r="N223" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="224" spans="14:14">
-      <c r="N224" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="225" spans="14:14">
-      <c r="N225" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="226" spans="14:14">
-      <c r="N226" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="227" spans="14:14">
-      <c r="N227" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="228" spans="14:14">
-      <c r="N228" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="229" spans="14:14">
-      <c r="N229" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="230" spans="14:14">
-      <c r="N230" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="231" spans="14:14">
-      <c r="N231" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="232" spans="14:14">
-      <c r="N232" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="233" spans="14:14">
-      <c r="N233" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="234" spans="14:14">
-      <c r="N234" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="235" spans="14:14">
-      <c r="N235" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="236" spans="14:14">
-      <c r="N236" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="237" spans="14:14">
-      <c r="N237" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="238" spans="14:14">
-      <c r="N238" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="239" spans="14:14">
-      <c r="N239" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="240" spans="14:14">
-      <c r="N240" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="241" spans="14:14">
-      <c r="N241" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="242" spans="14:14">
-      <c r="N242" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="243" spans="14:14">
-      <c r="N243" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="244" spans="14:14">
-      <c r="N244" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="245" spans="14:14">
-      <c r="N245" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="246" spans="14:14">
-      <c r="N246" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="247" spans="14:14">
-      <c r="N247" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="248" spans="14:14">
-      <c r="N248" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="249" spans="14:14">
-      <c r="N249" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="250" spans="14:14">
-      <c r="N250" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="251" spans="14:14">
-      <c r="N251" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="252" spans="14:14">
-      <c r="N252" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="253" spans="14:14">
-      <c r="N253" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="254" spans="14:14">
-      <c r="N254" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="255" spans="14:14">
-      <c r="N255" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="256" spans="14:14">
-      <c r="N256" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="257" spans="14:14">
-      <c r="N257" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="258" spans="14:14">
-      <c r="N258" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="259" spans="14:14">
-      <c r="N259" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="260" spans="14:14">
-      <c r="N260" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="261" spans="14:14">
-      <c r="N261" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="262" spans="14:14">
-      <c r="N262" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="263" spans="14:14">
-      <c r="N263" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="264" spans="14:14">
-      <c r="N264" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="265" spans="14:14">
-      <c r="N265" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="266" spans="14:14">
-      <c r="N266" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="267" spans="14:14">
-      <c r="N267" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="268" spans="14:14">
-      <c r="N268" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="269" spans="14:14">
-      <c r="N269" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="270" spans="14:14">
-      <c r="N270" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="271" spans="14:14">
-      <c r="N271" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="272" spans="14:14">
-      <c r="N272" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="273" spans="14:14">
-      <c r="N273" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="274" spans="14:14">
-      <c r="N274" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="275" spans="14:14">
-      <c r="N275" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="276" spans="14:14">
-      <c r="N276" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="277" spans="14:14">
-      <c r="N277" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="278" spans="14:14">
-      <c r="N278" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="279" spans="14:14">
-      <c r="N279" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="280" spans="14:14">
-      <c r="N280" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="281" spans="14:14">
-      <c r="N281" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="282" spans="14:14">
-      <c r="N282" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="283" spans="14:14">
-      <c r="N283" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="284" spans="14:14">
-      <c r="N284" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="285" spans="14:14">
-      <c r="N285" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="286" spans="14:14">
-      <c r="N286" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="287" spans="14:14">
-      <c r="N287" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="288" spans="14:14">
-      <c r="N288" t="s">
-        <v>571</v>
+    <row r="285" spans="19:19">
+      <c r="S285" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="286" spans="19:19">
+      <c r="S286" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="287" spans="19:19">
+      <c r="S287" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="288" spans="19:19">
+      <c r="S288" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="289" spans="19:19">
+      <c r="S289" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="618">
   <si>
     <t>alias</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2421,7 +2424,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2465,7 +2468,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2492,7 +2495,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3204,6 +3207,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3228,27 +3236,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3271,122 +3279,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3413,204 +3421,204 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -3636,1453 +3644,1453 @@
   <sheetData>
     <row r="1" spans="16:19">
       <c r="P1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="16:19">
       <c r="P2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="16:19">
       <c r="S3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="16:19">
       <c r="S4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="16:19">
       <c r="S5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="16:19">
       <c r="S6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="16:19">
       <c r="S7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="16:19">
       <c r="S8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="S9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="16:19">
       <c r="S10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="16:19">
       <c r="S11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="16:19">
       <c r="S12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="16:19">
       <c r="S13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="16:19">
       <c r="S14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="16:19">
       <c r="S15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="16:19">
       <c r="S16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="19:19">
       <c r="S17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="19:19">
       <c r="S18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="S19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="19:19">
       <c r="S20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="19:19">
       <c r="S21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="19:19">
       <c r="S22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="19:19">
       <c r="S23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="19:19">
       <c r="S25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="19:19">
       <c r="S26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="19:19">
       <c r="S27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="19:19">
       <c r="S28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="19:19">
       <c r="S29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="19:19">
       <c r="S30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="19:19">
       <c r="S31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="19:19">
       <c r="S32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="19:19">
       <c r="S33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="19:19">
       <c r="S34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="19:19">
       <c r="S35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="19:19">
       <c r="S36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="19:19">
       <c r="S37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="19:19">
       <c r="S38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="19:19">
       <c r="S39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="19:19">
       <c r="S40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="19:19">
       <c r="S41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="19:19">
       <c r="S42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="19:19">
       <c r="S43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="19:19">
       <c r="S44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="19:19">
       <c r="S45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="19:19">
       <c r="S46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="19:19">
       <c r="S47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="19:19">
       <c r="S48" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="19:19">
       <c r="S49" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="19:19">
       <c r="S50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="19:19">
       <c r="S52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="19:19">
       <c r="S53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="19:19">
       <c r="S54" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="19:19">
       <c r="S55" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="19:19">
       <c r="S56" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="19:19">
       <c r="S57" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="19:19">
       <c r="S58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="19:19">
       <c r="S59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="19:19">
       <c r="S60" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="19:19">
       <c r="S61" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="19:19">
       <c r="S62" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="19:19">
       <c r="S63" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="19:19">
       <c r="S64" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="19:19">
       <c r="S65" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="19:19">
       <c r="S66" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="19:19">
       <c r="S67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="19:19">
       <c r="S68" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="19:19">
       <c r="S69" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="19:19">
       <c r="S70" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="19:19">
       <c r="S71" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="72" spans="19:19">
       <c r="S72" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="19:19">
       <c r="S73" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="19:19">
       <c r="S74" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="19:19">
       <c r="S75" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="19:19">
       <c r="S76" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="19:19">
       <c r="S77" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="19:19">
       <c r="S78" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="79" spans="19:19">
       <c r="S79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="19:19">
       <c r="S80" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="81" spans="19:19">
       <c r="S81" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="19:19">
       <c r="S83" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="19:19">
       <c r="S84" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="19:19">
       <c r="S85" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="19:19">
       <c r="S86" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="19:19">
       <c r="S87" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="88" spans="19:19">
       <c r="S88" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="19:19">
       <c r="S89" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="19:19">
       <c r="S90" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="19:19">
       <c r="S91" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="19:19">
       <c r="S92" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="19:19">
       <c r="S93" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="19:19">
       <c r="S94" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="19:19">
       <c r="S95" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="19:19">
       <c r="S96" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="19:19">
       <c r="S97" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="19:19">
       <c r="S98" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="99" spans="19:19">
       <c r="S99" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="100" spans="19:19">
       <c r="S100" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="19:19">
       <c r="S101" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="19:19">
       <c r="S102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="19:19">
       <c r="S103" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="19:19">
       <c r="S104" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="19:19">
       <c r="S105" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="19:19">
       <c r="S106" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="19:19">
       <c r="S107" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="19:19">
       <c r="S108" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="109" spans="19:19">
       <c r="S109" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="19:19">
       <c r="S110" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="19:19">
       <c r="S111" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="19:19">
       <c r="S112" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="19:19">
       <c r="S113" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="19:19">
       <c r="S114" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="19:19">
       <c r="S115" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="19:19">
       <c r="S116" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="19:19">
       <c r="S117" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="19:19">
       <c r="S118" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="19:19">
       <c r="S119" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="19:19">
       <c r="S120" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="121" spans="19:19">
       <c r="S121" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="19:19">
       <c r="S122" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="19:19">
       <c r="S123" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="19:19">
       <c r="S124" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="19:19">
       <c r="S125" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="126" spans="19:19">
       <c r="S126" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="19:19">
       <c r="S127" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="19:19">
       <c r="S128" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="19:19">
       <c r="S129" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="19:19">
       <c r="S130" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="131" spans="19:19">
       <c r="S131" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="19:19">
       <c r="S132" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="19:19">
       <c r="S133" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="134" spans="19:19">
       <c r="S134" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="19:19">
       <c r="S135" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="19:19">
       <c r="S136" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="19:19">
       <c r="S137" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" spans="19:19">
       <c r="S138" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="19:19">
       <c r="S139" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="19:19">
       <c r="S140" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="19:19">
       <c r="S141" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="19:19">
       <c r="S142" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="19:19">
       <c r="S143" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="19:19">
       <c r="S144" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="19:19">
       <c r="S145" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="19:19">
       <c r="S146" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="19:19">
       <c r="S147" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="148" spans="19:19">
       <c r="S148" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="19:19">
       <c r="S149" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="19:19">
       <c r="S150" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="19:19">
       <c r="S151" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="19:19">
       <c r="S152" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="19:19">
       <c r="S153" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="19:19">
       <c r="S154" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="19:19">
       <c r="S155" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="19:19">
       <c r="S156" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157" spans="19:19">
       <c r="S157" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="19:19">
       <c r="S158" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="19:19">
       <c r="S159" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="19:19">
       <c r="S160" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="161" spans="19:19">
       <c r="S161" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="162" spans="19:19">
       <c r="S162" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="163" spans="19:19">
       <c r="S163" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="164" spans="19:19">
       <c r="S164" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="19:19">
       <c r="S165" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="19:19">
       <c r="S166" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="19:19">
       <c r="S167" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="19:19">
       <c r="S168" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="19:19">
       <c r="S169" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="19:19">
       <c r="S170" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="19:19">
       <c r="S171" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="19:19">
       <c r="S172" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="173" spans="19:19">
       <c r="S173" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="174" spans="19:19">
       <c r="S174" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="175" spans="19:19">
       <c r="S175" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="176" spans="19:19">
       <c r="S176" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="19:19">
       <c r="S177" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="178" spans="19:19">
       <c r="S178" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="179" spans="19:19">
       <c r="S179" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="19:19">
       <c r="S180" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="19:19">
       <c r="S181" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="182" spans="19:19">
       <c r="S182" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="183" spans="19:19">
       <c r="S183" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="19:19">
       <c r="S184" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="185" spans="19:19">
       <c r="S185" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="19:19">
       <c r="S186" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="187" spans="19:19">
       <c r="S187" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="19:19">
       <c r="S188" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="19:19">
       <c r="S189" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="19:19">
       <c r="S190" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="19:19">
       <c r="S191" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="192" spans="19:19">
       <c r="S192" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="193" spans="19:19">
       <c r="S193" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="194" spans="19:19">
       <c r="S194" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="195" spans="19:19">
       <c r="S195" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="196" spans="19:19">
       <c r="S196" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" spans="19:19">
       <c r="S197" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" spans="19:19">
       <c r="S198" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="19:19">
       <c r="S199" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="200" spans="19:19">
       <c r="S200" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="201" spans="19:19">
       <c r="S201" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="19:19">
       <c r="S202" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="203" spans="19:19">
       <c r="S203" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" spans="19:19">
       <c r="S204" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="19:19">
       <c r="S205" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="206" spans="19:19">
       <c r="S206" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="19:19">
       <c r="S207" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="208" spans="19:19">
       <c r="S208" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="209" spans="19:19">
       <c r="S209" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="19:19">
       <c r="S210" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="211" spans="19:19">
       <c r="S211" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="212" spans="19:19">
       <c r="S212" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="213" spans="19:19">
       <c r="S213" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="214" spans="19:19">
       <c r="S214" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="215" spans="19:19">
       <c r="S215" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="216" spans="19:19">
       <c r="S216" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="217" spans="19:19">
       <c r="S217" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="218" spans="19:19">
       <c r="S218" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="219" spans="19:19">
       <c r="S219" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="220" spans="19:19">
       <c r="S220" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="221" spans="19:19">
       <c r="S221" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="222" spans="19:19">
       <c r="S222" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="223" spans="19:19">
       <c r="S223" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="224" spans="19:19">
       <c r="S224" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="225" spans="19:19">
       <c r="S225" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="226" spans="19:19">
       <c r="S226" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="227" spans="19:19">
       <c r="S227" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="228" spans="19:19">
       <c r="S228" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="229" spans="19:19">
       <c r="S229" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="230" spans="19:19">
       <c r="S230" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="231" spans="19:19">
       <c r="S231" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="232" spans="19:19">
       <c r="S232" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="233" spans="19:19">
       <c r="S233" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="234" spans="19:19">
       <c r="S234" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="235" spans="19:19">
       <c r="S235" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="236" spans="19:19">
       <c r="S236" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="237" spans="19:19">
       <c r="S237" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="238" spans="19:19">
       <c r="S238" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="239" spans="19:19">
       <c r="S239" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="240" spans="19:19">
       <c r="S240" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="241" spans="19:19">
       <c r="S241" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="242" spans="19:19">
       <c r="S242" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="243" spans="19:19">
       <c r="S243" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="244" spans="19:19">
       <c r="S244" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="245" spans="19:19">
       <c r="S245" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="246" spans="19:19">
       <c r="S246" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="247" spans="19:19">
       <c r="S247" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="248" spans="19:19">
       <c r="S248" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="249" spans="19:19">
       <c r="S249" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="250" spans="19:19">
       <c r="S250" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="251" spans="19:19">
       <c r="S251" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="19:19">
       <c r="S252" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="253" spans="19:19">
       <c r="S253" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="254" spans="19:19">
       <c r="S254" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="19:19">
       <c r="S255" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="256" spans="19:19">
       <c r="S256" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="257" spans="19:19">
       <c r="S257" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="258" spans="19:19">
       <c r="S258" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="259" spans="19:19">
       <c r="S259" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="260" spans="19:19">
       <c r="S260" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="261" spans="19:19">
       <c r="S261" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="262" spans="19:19">
       <c r="S262" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="263" spans="19:19">
       <c r="S263" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="264" spans="19:19">
       <c r="S264" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="265" spans="19:19">
       <c r="S265" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="266" spans="19:19">
       <c r="S266" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="267" spans="19:19">
       <c r="S267" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="268" spans="19:19">
       <c r="S268" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="269" spans="19:19">
       <c r="S269" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270" spans="19:19">
       <c r="S270" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="271" spans="19:19">
       <c r="S271" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="272" spans="19:19">
       <c r="S272" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="273" spans="19:19">
       <c r="S273" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="274" spans="19:19">
       <c r="S274" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="275" spans="19:19">
       <c r="S275" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="19:19">
       <c r="S276" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="277" spans="19:19">
       <c r="S277" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="19:19">
       <c r="S278" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="279" spans="19:19">
       <c r="S279" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="280" spans="19:19">
       <c r="S280" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="281" spans="19:19">
       <c r="S281" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="282" spans="19:19">
       <c r="S282" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="283" spans="19:19">
       <c r="S283" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="284" spans="19:19">
       <c r="S284" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="285" spans="19:19">
       <c r="S285" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="19:19">
       <c r="S286" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="287" spans="19:19">
       <c r="S287" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="288" spans="19:19">
       <c r="S288" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="619">
   <si>
     <t>alias</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2424,7 +2427,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2468,7 +2471,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2498,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3212,6 +3215,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3236,27 +3244,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3279,122 +3287,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3421,204 +3429,204 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -3644,1453 +3652,1453 @@
   <sheetData>
     <row r="1" spans="16:19">
       <c r="P1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="16:19">
       <c r="P2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="16:19">
       <c r="S3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="16:19">
       <c r="S4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="16:19">
       <c r="S5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="16:19">
       <c r="S6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="16:19">
       <c r="S7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="16:19">
       <c r="S8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="S9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="16:19">
       <c r="S10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="16:19">
       <c r="S11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="16:19">
       <c r="S12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="16:19">
       <c r="S13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="16:19">
       <c r="S14" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="16:19">
       <c r="S15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="16:19">
       <c r="S16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="19:19">
       <c r="S17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="19:19">
       <c r="S18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="S19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="19:19">
       <c r="S20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="19:19">
       <c r="S21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="19:19">
       <c r="S22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="19:19">
       <c r="S23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="19:19">
       <c r="S25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="19:19">
       <c r="S26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="19:19">
       <c r="S27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="19:19">
       <c r="S28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="19:19">
       <c r="S29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="19:19">
       <c r="S30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="19:19">
       <c r="S31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="19:19">
       <c r="S32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="19:19">
       <c r="S33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="19:19">
       <c r="S34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="19:19">
       <c r="S35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="19:19">
       <c r="S36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="19:19">
       <c r="S37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="19:19">
       <c r="S38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="19:19">
       <c r="S39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="19:19">
       <c r="S40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="19:19">
       <c r="S41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="19:19">
       <c r="S42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="19:19">
       <c r="S43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="19:19">
       <c r="S44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="19:19">
       <c r="S45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="19:19">
       <c r="S46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="19:19">
       <c r="S47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="19:19">
       <c r="S48" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="19:19">
       <c r="S49" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="19:19">
       <c r="S50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="19:19">
       <c r="S52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="19:19">
       <c r="S53" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="19:19">
       <c r="S54" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="19:19">
       <c r="S55" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="19:19">
       <c r="S56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="19:19">
       <c r="S57" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="19:19">
       <c r="S58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="19:19">
       <c r="S59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="19:19">
       <c r="S60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="19:19">
       <c r="S61" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="19:19">
       <c r="S62" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="19:19">
       <c r="S63" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="19:19">
       <c r="S64" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="19:19">
       <c r="S65" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="19:19">
       <c r="S66" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="19:19">
       <c r="S67" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="19:19">
       <c r="S68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="19:19">
       <c r="S69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="19:19">
       <c r="S70" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="19:19">
       <c r="S71" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="19:19">
       <c r="S72" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="19:19">
       <c r="S73" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="19:19">
       <c r="S74" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="19:19">
       <c r="S75" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="76" spans="19:19">
       <c r="S76" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="19:19">
       <c r="S77" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="19:19">
       <c r="S78" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="19:19">
       <c r="S79" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="19:19">
       <c r="S80" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="19:19">
       <c r="S81" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="19:19">
       <c r="S83" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="19:19">
       <c r="S84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="19:19">
       <c r="S85" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="19:19">
       <c r="S86" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="19:19">
       <c r="S87" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="19:19">
       <c r="S88" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="19:19">
       <c r="S89" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="19:19">
       <c r="S90" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="19:19">
       <c r="S91" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="19:19">
       <c r="S92" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="19:19">
       <c r="S93" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="19:19">
       <c r="S94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="95" spans="19:19">
       <c r="S95" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="19:19">
       <c r="S96" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="19:19">
       <c r="S97" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="19:19">
       <c r="S98" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="19:19">
       <c r="S99" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="19:19">
       <c r="S100" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="101" spans="19:19">
       <c r="S101" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="19:19">
       <c r="S102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="19:19">
       <c r="S103" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="19:19">
       <c r="S104" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="19:19">
       <c r="S105" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="19:19">
       <c r="S106" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="19:19">
       <c r="S107" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="19:19">
       <c r="S108" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="109" spans="19:19">
       <c r="S109" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="19:19">
       <c r="S110" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="19:19">
       <c r="S111" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="19:19">
       <c r="S112" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="19:19">
       <c r="S113" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="19:19">
       <c r="S114" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="19:19">
       <c r="S115" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="19:19">
       <c r="S116" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="19:19">
       <c r="S117" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="19:19">
       <c r="S118" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="19:19">
       <c r="S119" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="19:19">
       <c r="S120" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="19:19">
       <c r="S121" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="19:19">
       <c r="S122" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="19:19">
       <c r="S123" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="19:19">
       <c r="S124" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125" spans="19:19">
       <c r="S125" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="19:19">
       <c r="S126" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="19:19">
       <c r="S127" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="19:19">
       <c r="S128" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="19:19">
       <c r="S129" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="130" spans="19:19">
       <c r="S130" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="19:19">
       <c r="S131" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="132" spans="19:19">
       <c r="S132" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" spans="19:19">
       <c r="S133" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="19:19">
       <c r="S134" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" spans="19:19">
       <c r="S135" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="19:19">
       <c r="S136" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="137" spans="19:19">
       <c r="S137" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="19:19">
       <c r="S138" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="19:19">
       <c r="S139" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="140" spans="19:19">
       <c r="S140" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="141" spans="19:19">
       <c r="S141" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="142" spans="19:19">
       <c r="S142" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="19:19">
       <c r="S143" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="19:19">
       <c r="S144" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="19:19">
       <c r="S145" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="19:19">
       <c r="S146" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="147" spans="19:19">
       <c r="S147" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="19:19">
       <c r="S148" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="149" spans="19:19">
       <c r="S149" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="19:19">
       <c r="S150" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="19:19">
       <c r="S151" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="19:19">
       <c r="S152" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="19:19">
       <c r="S153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154" spans="19:19">
       <c r="S154" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="19:19">
       <c r="S155" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="19:19">
       <c r="S156" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="19:19">
       <c r="S157" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="158" spans="19:19">
       <c r="S158" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="19:19">
       <c r="S159" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="160" spans="19:19">
       <c r="S160" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="161" spans="19:19">
       <c r="S161" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="162" spans="19:19">
       <c r="S162" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="163" spans="19:19">
       <c r="S163" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="19:19">
       <c r="S164" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="19:19">
       <c r="S165" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="19:19">
       <c r="S166" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="19:19">
       <c r="S167" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="19:19">
       <c r="S168" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="19:19">
       <c r="S169" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="19:19">
       <c r="S170" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="19:19">
       <c r="S171" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" spans="19:19">
       <c r="S172" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="173" spans="19:19">
       <c r="S173" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="174" spans="19:19">
       <c r="S174" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="175" spans="19:19">
       <c r="S175" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="176" spans="19:19">
       <c r="S176" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="177" spans="19:19">
       <c r="S177" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="19:19">
       <c r="S178" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="19:19">
       <c r="S179" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="180" spans="19:19">
       <c r="S180" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="19:19">
       <c r="S181" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="182" spans="19:19">
       <c r="S182" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="19:19">
       <c r="S183" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="184" spans="19:19">
       <c r="S184" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="185" spans="19:19">
       <c r="S185" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="19:19">
       <c r="S186" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="19:19">
       <c r="S187" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="19:19">
       <c r="S188" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="189" spans="19:19">
       <c r="S189" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" spans="19:19">
       <c r="S190" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" spans="19:19">
       <c r="S191" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" spans="19:19">
       <c r="S192" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="193" spans="19:19">
       <c r="S193" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194" spans="19:19">
       <c r="S194" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="195" spans="19:19">
       <c r="S195" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="196" spans="19:19">
       <c r="S196" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="197" spans="19:19">
       <c r="S197" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="19:19">
       <c r="S198" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="199" spans="19:19">
       <c r="S199" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="200" spans="19:19">
       <c r="S200" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="201" spans="19:19">
       <c r="S201" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="202" spans="19:19">
       <c r="S202" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="19:19">
       <c r="S203" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="19:19">
       <c r="S204" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="205" spans="19:19">
       <c r="S205" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="206" spans="19:19">
       <c r="S206" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="207" spans="19:19">
       <c r="S207" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="208" spans="19:19">
       <c r="S208" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="19:19">
       <c r="S209" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="210" spans="19:19">
       <c r="S210" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="211" spans="19:19">
       <c r="S211" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="212" spans="19:19">
       <c r="S212" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="213" spans="19:19">
       <c r="S213" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="214" spans="19:19">
       <c r="S214" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="215" spans="19:19">
       <c r="S215" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="216" spans="19:19">
       <c r="S216" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="19:19">
       <c r="S217" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="218" spans="19:19">
       <c r="S218" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="219" spans="19:19">
       <c r="S219" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="220" spans="19:19">
       <c r="S220" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="221" spans="19:19">
       <c r="S221" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="222" spans="19:19">
       <c r="S222" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="223" spans="19:19">
       <c r="S223" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="224" spans="19:19">
       <c r="S224" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="225" spans="19:19">
       <c r="S225" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="226" spans="19:19">
       <c r="S226" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="227" spans="19:19">
       <c r="S227" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="228" spans="19:19">
       <c r="S228" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="229" spans="19:19">
       <c r="S229" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="230" spans="19:19">
       <c r="S230" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="231" spans="19:19">
       <c r="S231" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="232" spans="19:19">
       <c r="S232" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="233" spans="19:19">
       <c r="S233" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="234" spans="19:19">
       <c r="S234" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="235" spans="19:19">
       <c r="S235" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="236" spans="19:19">
       <c r="S236" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="237" spans="19:19">
       <c r="S237" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="238" spans="19:19">
       <c r="S238" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="239" spans="19:19">
       <c r="S239" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="240" spans="19:19">
       <c r="S240" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="241" spans="19:19">
       <c r="S241" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="242" spans="19:19">
       <c r="S242" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="243" spans="19:19">
       <c r="S243" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="244" spans="19:19">
       <c r="S244" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="245" spans="19:19">
       <c r="S245" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="246" spans="19:19">
       <c r="S246" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="247" spans="19:19">
       <c r="S247" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="248" spans="19:19">
       <c r="S248" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="249" spans="19:19">
       <c r="S249" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="250" spans="19:19">
       <c r="S250" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="19:19">
       <c r="S251" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="252" spans="19:19">
       <c r="S252" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="253" spans="19:19">
       <c r="S253" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="254" spans="19:19">
       <c r="S254" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="255" spans="19:19">
       <c r="S255" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="19:19">
       <c r="S256" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="257" spans="19:19">
       <c r="S257" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="258" spans="19:19">
       <c r="S258" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="259" spans="19:19">
       <c r="S259" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="260" spans="19:19">
       <c r="S260" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="261" spans="19:19">
       <c r="S261" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="262" spans="19:19">
       <c r="S262" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="263" spans="19:19">
       <c r="S263" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="264" spans="19:19">
       <c r="S264" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="265" spans="19:19">
       <c r="S265" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="266" spans="19:19">
       <c r="S266" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="267" spans="19:19">
       <c r="S267" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="268" spans="19:19">
       <c r="S268" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="269" spans="19:19">
       <c r="S269" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="270" spans="19:19">
       <c r="S270" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="271" spans="19:19">
       <c r="S271" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="272" spans="19:19">
       <c r="S272" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="273" spans="19:19">
       <c r="S273" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="274" spans="19:19">
       <c r="S274" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="19:19">
       <c r="S275" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="276" spans="19:19">
       <c r="S276" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="19:19">
       <c r="S277" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="278" spans="19:19">
       <c r="S278" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="279" spans="19:19">
       <c r="S279" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="280" spans="19:19">
       <c r="S280" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="281" spans="19:19">
       <c r="S281" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="19:19">
       <c r="S282" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="19:19">
       <c r="S283" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="284" spans="19:19">
       <c r="S284" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="19:19">
       <c r="S285" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286" spans="19:19">
       <c r="S286" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="287" spans="19:19">
       <c r="S287" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="288" spans="19:19">
       <c r="S288" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="620">
   <si>
     <t>alias</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2427,7 +2430,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2471,7 +2474,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2498,7 +2501,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3220,6 +3223,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3244,27 +3252,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3287,122 +3295,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3429,204 +3437,204 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -3652,1453 +3660,1453 @@
   <sheetData>
     <row r="1" spans="16:19">
       <c r="P1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="16:19">
       <c r="P2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="16:19">
       <c r="S3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="16:19">
       <c r="S4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="16:19">
       <c r="S5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="16:19">
       <c r="S6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="16:19">
       <c r="S7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="16:19">
       <c r="S8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="S9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="16:19">
       <c r="S10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="16:19">
       <c r="S11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="16:19">
       <c r="S12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="16:19">
       <c r="S13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="16:19">
       <c r="S14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="16:19">
       <c r="S15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="16:19">
       <c r="S16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="19:19">
       <c r="S17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="19:19">
       <c r="S18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="S19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="19:19">
       <c r="S20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="19:19">
       <c r="S21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="19:19">
       <c r="S22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="19:19">
       <c r="S23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="19:19">
       <c r="S25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="19:19">
       <c r="S26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="19:19">
       <c r="S27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="19:19">
       <c r="S28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="19:19">
       <c r="S29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="19:19">
       <c r="S30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="19:19">
       <c r="S31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="19:19">
       <c r="S32" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="19:19">
       <c r="S33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="19:19">
       <c r="S34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="19:19">
       <c r="S35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="19:19">
       <c r="S36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="19:19">
       <c r="S37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="19:19">
       <c r="S38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="19:19">
       <c r="S39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="19:19">
       <c r="S40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="19:19">
       <c r="S41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="19:19">
       <c r="S42" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="19:19">
       <c r="S43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="19:19">
       <c r="S44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="19:19">
       <c r="S45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="19:19">
       <c r="S46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="19:19">
       <c r="S47" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="19:19">
       <c r="S48" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="19:19">
       <c r="S49" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="19:19">
       <c r="S50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="19:19">
       <c r="S52" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="19:19">
       <c r="S53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="19:19">
       <c r="S54" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="19:19">
       <c r="S55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="19:19">
       <c r="S56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="19:19">
       <c r="S57" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="19:19">
       <c r="S58" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="19:19">
       <c r="S59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="19:19">
       <c r="S60" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="19:19">
       <c r="S61" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="19:19">
       <c r="S62" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="19:19">
       <c r="S63" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="19:19">
       <c r="S64" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="19:19">
       <c r="S65" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="19:19">
       <c r="S66" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="19:19">
       <c r="S67" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="19:19">
       <c r="S68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="19:19">
       <c r="S69" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="19:19">
       <c r="S70" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="19:19">
       <c r="S71" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="19:19">
       <c r="S72" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="19:19">
       <c r="S73" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="19:19">
       <c r="S74" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="19:19">
       <c r="S75" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="19:19">
       <c r="S76" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="19:19">
       <c r="S77" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="19:19">
       <c r="S78" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="19:19">
       <c r="S79" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="19:19">
       <c r="S80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="19:19">
       <c r="S81" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" spans="19:19">
       <c r="S83" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="19:19">
       <c r="S84" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="19:19">
       <c r="S85" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="19:19">
       <c r="S86" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="19:19">
       <c r="S87" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="19:19">
       <c r="S88" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="19:19">
       <c r="S89" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="19:19">
       <c r="S90" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91" spans="19:19">
       <c r="S91" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="19:19">
       <c r="S92" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="19:19">
       <c r="S93" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="19:19">
       <c r="S94" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="19:19">
       <c r="S95" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="19:19">
       <c r="S96" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="97" spans="19:19">
       <c r="S97" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="19:19">
       <c r="S98" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99" spans="19:19">
       <c r="S99" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="19:19">
       <c r="S100" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="19:19">
       <c r="S101" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="19:19">
       <c r="S102" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="19:19">
       <c r="S103" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="19:19">
       <c r="S104" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="19:19">
       <c r="S105" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" spans="19:19">
       <c r="S106" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="107" spans="19:19">
       <c r="S107" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="19:19">
       <c r="S108" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="19:19">
       <c r="S109" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="110" spans="19:19">
       <c r="S110" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="19:19">
       <c r="S111" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="19:19">
       <c r="S112" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="19:19">
       <c r="S113" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="19:19">
       <c r="S114" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="19:19">
       <c r="S115" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116" spans="19:19">
       <c r="S116" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117" spans="19:19">
       <c r="S117" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="118" spans="19:19">
       <c r="S118" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="119" spans="19:19">
       <c r="S119" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="19:19">
       <c r="S120" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="121" spans="19:19">
       <c r="S121" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="19:19">
       <c r="S122" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="19:19">
       <c r="S123" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="124" spans="19:19">
       <c r="S124" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="19:19">
       <c r="S125" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126" spans="19:19">
       <c r="S126" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="127" spans="19:19">
       <c r="S127" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="19:19">
       <c r="S128" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="129" spans="19:19">
       <c r="S129" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="19:19">
       <c r="S130" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="19:19">
       <c r="S131" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="132" spans="19:19">
       <c r="S132" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" spans="19:19">
       <c r="S133" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134" spans="19:19">
       <c r="S134" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="19:19">
       <c r="S135" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" spans="19:19">
       <c r="S136" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="19:19">
       <c r="S137" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="19:19">
       <c r="S138" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="139" spans="19:19">
       <c r="S139" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="140" spans="19:19">
       <c r="S140" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="19:19">
       <c r="S141" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" spans="19:19">
       <c r="S142" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="19:19">
       <c r="S143" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="144" spans="19:19">
       <c r="S144" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="19:19">
       <c r="S145" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="146" spans="19:19">
       <c r="S146" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="147" spans="19:19">
       <c r="S147" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="19:19">
       <c r="S148" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="149" spans="19:19">
       <c r="S149" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="19:19">
       <c r="S150" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="19:19">
       <c r="S151" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" spans="19:19">
       <c r="S152" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="19:19">
       <c r="S153" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="154" spans="19:19">
       <c r="S154" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="155" spans="19:19">
       <c r="S155" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" spans="19:19">
       <c r="S156" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="157" spans="19:19">
       <c r="S157" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="158" spans="19:19">
       <c r="S158" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="159" spans="19:19">
       <c r="S159" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="160" spans="19:19">
       <c r="S160" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="161" spans="19:19">
       <c r="S161" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="162" spans="19:19">
       <c r="S162" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="163" spans="19:19">
       <c r="S163" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="164" spans="19:19">
       <c r="S164" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="165" spans="19:19">
       <c r="S165" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="19:19">
       <c r="S166" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="19:19">
       <c r="S167" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="19:19">
       <c r="S168" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="19:19">
       <c r="S169" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="19:19">
       <c r="S170" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="171" spans="19:19">
       <c r="S171" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="172" spans="19:19">
       <c r="S172" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="19:19">
       <c r="S173" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="174" spans="19:19">
       <c r="S174" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="175" spans="19:19">
       <c r="S175" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="176" spans="19:19">
       <c r="S176" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="177" spans="19:19">
       <c r="S177" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="178" spans="19:19">
       <c r="S178" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="179" spans="19:19">
       <c r="S179" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="19:19">
       <c r="S180" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="181" spans="19:19">
       <c r="S181" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="182" spans="19:19">
       <c r="S182" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="183" spans="19:19">
       <c r="S183" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="184" spans="19:19">
       <c r="S184" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="185" spans="19:19">
       <c r="S185" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="186" spans="19:19">
       <c r="S186" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="19:19">
       <c r="S187" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="188" spans="19:19">
       <c r="S188" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" spans="19:19">
       <c r="S189" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="190" spans="19:19">
       <c r="S190" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="191" spans="19:19">
       <c r="S191" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="192" spans="19:19">
       <c r="S192" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="19:19">
       <c r="S193" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="194" spans="19:19">
       <c r="S194" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="195" spans="19:19">
       <c r="S195" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="196" spans="19:19">
       <c r="S196" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="19:19">
       <c r="S197" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="198" spans="19:19">
       <c r="S198" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="199" spans="19:19">
       <c r="S199" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="200" spans="19:19">
       <c r="S200" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="201" spans="19:19">
       <c r="S201" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="202" spans="19:19">
       <c r="S202" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="19:19">
       <c r="S203" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="204" spans="19:19">
       <c r="S204" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="19:19">
       <c r="S205" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="206" spans="19:19">
       <c r="S206" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="207" spans="19:19">
       <c r="S207" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="208" spans="19:19">
       <c r="S208" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="209" spans="19:19">
       <c r="S209" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="210" spans="19:19">
       <c r="S210" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="211" spans="19:19">
       <c r="S211" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="212" spans="19:19">
       <c r="S212" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="213" spans="19:19">
       <c r="S213" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="214" spans="19:19">
       <c r="S214" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="215" spans="19:19">
       <c r="S215" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="216" spans="19:19">
       <c r="S216" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="217" spans="19:19">
       <c r="S217" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="218" spans="19:19">
       <c r="S218" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="219" spans="19:19">
       <c r="S219" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="220" spans="19:19">
       <c r="S220" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="221" spans="19:19">
       <c r="S221" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="222" spans="19:19">
       <c r="S222" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="223" spans="19:19">
       <c r="S223" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="224" spans="19:19">
       <c r="S224" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="225" spans="19:19">
       <c r="S225" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="226" spans="19:19">
       <c r="S226" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="227" spans="19:19">
       <c r="S227" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="228" spans="19:19">
       <c r="S228" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="229" spans="19:19">
       <c r="S229" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="230" spans="19:19">
       <c r="S230" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="231" spans="19:19">
       <c r="S231" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="232" spans="19:19">
       <c r="S232" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="233" spans="19:19">
       <c r="S233" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="234" spans="19:19">
       <c r="S234" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="235" spans="19:19">
       <c r="S235" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="236" spans="19:19">
       <c r="S236" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="237" spans="19:19">
       <c r="S237" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="238" spans="19:19">
       <c r="S238" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="239" spans="19:19">
       <c r="S239" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="240" spans="19:19">
       <c r="S240" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="241" spans="19:19">
       <c r="S241" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="242" spans="19:19">
       <c r="S242" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="243" spans="19:19">
       <c r="S243" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="244" spans="19:19">
       <c r="S244" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="245" spans="19:19">
       <c r="S245" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="246" spans="19:19">
       <c r="S246" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="247" spans="19:19">
       <c r="S247" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="248" spans="19:19">
       <c r="S248" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="249" spans="19:19">
       <c r="S249" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="250" spans="19:19">
       <c r="S250" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="251" spans="19:19">
       <c r="S251" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="252" spans="19:19">
       <c r="S252" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="253" spans="19:19">
       <c r="S253" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="254" spans="19:19">
       <c r="S254" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="255" spans="19:19">
       <c r="S255" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256" spans="19:19">
       <c r="S256" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="257" spans="19:19">
       <c r="S257" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="258" spans="19:19">
       <c r="S258" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="259" spans="19:19">
       <c r="S259" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="260" spans="19:19">
       <c r="S260" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="261" spans="19:19">
       <c r="S261" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="262" spans="19:19">
       <c r="S262" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="263" spans="19:19">
       <c r="S263" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="264" spans="19:19">
       <c r="S264" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="265" spans="19:19">
       <c r="S265" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="266" spans="19:19">
       <c r="S266" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="267" spans="19:19">
       <c r="S267" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="268" spans="19:19">
       <c r="S268" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="269" spans="19:19">
       <c r="S269" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="270" spans="19:19">
       <c r="S270" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="271" spans="19:19">
       <c r="S271" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="272" spans="19:19">
       <c r="S272" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="273" spans="19:19">
       <c r="S273" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="19:19">
       <c r="S274" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="275" spans="19:19">
       <c r="S275" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="19:19">
       <c r="S276" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="277" spans="19:19">
       <c r="S277" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="278" spans="19:19">
       <c r="S278" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="279" spans="19:19">
       <c r="S279" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="280" spans="19:19">
       <c r="S280" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="19:19">
       <c r="S281" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="19:19">
       <c r="S282" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="283" spans="19:19">
       <c r="S283" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="19:19">
       <c r="S284" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="285" spans="19:19">
       <c r="S285" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="286" spans="19:19">
       <c r="S286" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="287" spans="19:19">
       <c r="S287" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="288" spans="19:19">
       <c r="S288" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -20,7 +20,7 @@
     <definedName name="environmentalsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="621">
   <si>
     <t>alias</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2430,7 +2433,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2474,7 +2477,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2504,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3228,6 +3231,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3252,27 +3260,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3295,122 +3303,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3437,204 +3445,204 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -3660,1453 +3668,1453 @@
   <sheetData>
     <row r="1" spans="16:19">
       <c r="P1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="16:19">
       <c r="P2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="16:19">
       <c r="S3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="16:19">
       <c r="S4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="16:19">
       <c r="S5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="16:19">
       <c r="S6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="16:19">
       <c r="S7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="16:19">
       <c r="S8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="S9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="16:19">
       <c r="S10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="16:19">
       <c r="S11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="16:19">
       <c r="S12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="16:19">
       <c r="S13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="16:19">
       <c r="S14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="16:19">
       <c r="S15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="16:19">
       <c r="S16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="19:19">
       <c r="S17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="19:19">
       <c r="S18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="S19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="19:19">
       <c r="S20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="19:19">
       <c r="S21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="19:19">
       <c r="S22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="19:19">
       <c r="S23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="19:19">
       <c r="S24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="19:19">
       <c r="S25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="19:19">
       <c r="S26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="19:19">
       <c r="S27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="19:19">
       <c r="S28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="19:19">
       <c r="S29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="19:19">
       <c r="S30" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="19:19">
       <c r="S31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="19:19">
       <c r="S32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="19:19">
       <c r="S33" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="19:19">
       <c r="S34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="19:19">
       <c r="S35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="19:19">
       <c r="S36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="19:19">
       <c r="S37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="19:19">
       <c r="S38" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="19:19">
       <c r="S39" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="19:19">
       <c r="S40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="19:19">
       <c r="S41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="19:19">
       <c r="S42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="19:19">
       <c r="S43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="19:19">
       <c r="S44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="19:19">
       <c r="S45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="19:19">
       <c r="S46" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="19:19">
       <c r="S47" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="19:19">
       <c r="S48" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="19:19">
       <c r="S49" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="19:19">
       <c r="S50" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="19:19">
       <c r="S51" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="19:19">
       <c r="S52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="19:19">
       <c r="S53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="19:19">
       <c r="S54" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="19:19">
       <c r="S55" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="19:19">
       <c r="S56" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="19:19">
       <c r="S57" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="19:19">
       <c r="S58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="19:19">
       <c r="S59" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="19:19">
       <c r="S60" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="19:19">
       <c r="S61" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="19:19">
       <c r="S62" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="19:19">
       <c r="S63" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="19:19">
       <c r="S64" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="19:19">
       <c r="S65" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="19:19">
       <c r="S66" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="19:19">
       <c r="S67" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="19:19">
       <c r="S68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="19:19">
       <c r="S69" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="19:19">
       <c r="S70" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="19:19">
       <c r="S71" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="19:19">
       <c r="S72" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="19:19">
       <c r="S73" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="19:19">
       <c r="S74" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="19:19">
       <c r="S75" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="19:19">
       <c r="S76" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="19:19">
       <c r="S77" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="19:19">
       <c r="S78" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="19:19">
       <c r="S79" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="19:19">
       <c r="S80" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="19:19">
       <c r="S81" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="19:19">
       <c r="S83" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="19:19">
       <c r="S84" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="19:19">
       <c r="S85" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="19:19">
       <c r="S86" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="19:19">
       <c r="S87" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="19:19">
       <c r="S88" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="19:19">
       <c r="S89" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="19:19">
       <c r="S90" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="19:19">
       <c r="S91" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="19:19">
       <c r="S92" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="19:19">
       <c r="S93" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="19:19">
       <c r="S94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="19:19">
       <c r="S95" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="19:19">
       <c r="S96" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="19:19">
       <c r="S97" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="19:19">
       <c r="S98" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="19:19">
       <c r="S99" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="19:19">
       <c r="S100" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="19:19">
       <c r="S101" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="19:19">
       <c r="S102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="19:19">
       <c r="S103" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="19:19">
       <c r="S104" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="19:19">
       <c r="S105" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="19:19">
       <c r="S106" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="19:19">
       <c r="S107" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="19:19">
       <c r="S108" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="19:19">
       <c r="S109" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="19:19">
       <c r="S110" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="19:19">
       <c r="S111" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="112" spans="19:19">
       <c r="S112" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="19:19">
       <c r="S113" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="19:19">
       <c r="S114" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" spans="19:19">
       <c r="S115" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="19:19">
       <c r="S116" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="19:19">
       <c r="S117" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="19:19">
       <c r="S118" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="19:19">
       <c r="S119" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="19:19">
       <c r="S120" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="19:19">
       <c r="S121" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="19:19">
       <c r="S122" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123" spans="19:19">
       <c r="S123" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="19:19">
       <c r="S124" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="19:19">
       <c r="S125" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126" spans="19:19">
       <c r="S126" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="19:19">
       <c r="S127" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="19:19">
       <c r="S128" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="19:19">
       <c r="S129" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="130" spans="19:19">
       <c r="S130" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="19:19">
       <c r="S131" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="19:19">
       <c r="S132" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="19:19">
       <c r="S133" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="19:19">
       <c r="S134" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="19:19">
       <c r="S135" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="19:19">
       <c r="S136" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="19:19">
       <c r="S137" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="19:19">
       <c r="S138" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="19:19">
       <c r="S139" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="19:19">
       <c r="S140" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141" spans="19:19">
       <c r="S141" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="19:19">
       <c r="S142" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="19:19">
       <c r="S143" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="19:19">
       <c r="S144" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="19:19">
       <c r="S145" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="19:19">
       <c r="S146" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="19:19">
       <c r="S147" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="19:19">
       <c r="S148" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="19:19">
       <c r="S149" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="19:19">
       <c r="S150" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="19:19">
       <c r="S151" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152" spans="19:19">
       <c r="S152" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="19:19">
       <c r="S153" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="19:19">
       <c r="S154" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="19:19">
       <c r="S155" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="19:19">
       <c r="S156" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="157" spans="19:19">
       <c r="S157" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="158" spans="19:19">
       <c r="S158" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="159" spans="19:19">
       <c r="S159" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="160" spans="19:19">
       <c r="S160" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="161" spans="19:19">
       <c r="S161" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="19:19">
       <c r="S162" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="19:19">
       <c r="S163" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164" spans="19:19">
       <c r="S164" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="19:19">
       <c r="S165" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="19:19">
       <c r="S166" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="19:19">
       <c r="S167" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="19:19">
       <c r="S168" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="19:19">
       <c r="S169" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="19:19">
       <c r="S170" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="19:19">
       <c r="S171" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172" spans="19:19">
       <c r="S172" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="19:19">
       <c r="S173" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="19:19">
       <c r="S174" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="19:19">
       <c r="S175" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="19:19">
       <c r="S176" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="19:19">
       <c r="S177" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="19:19">
       <c r="S178" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="19:19">
       <c r="S179" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="180" spans="19:19">
       <c r="S180" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="19:19">
       <c r="S181" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="19:19">
       <c r="S182" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="19:19">
       <c r="S183" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" spans="19:19">
       <c r="S184" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="19:19">
       <c r="S185" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="19:19">
       <c r="S186" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187" spans="19:19">
       <c r="S187" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="19:19">
       <c r="S188" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="189" spans="19:19">
       <c r="S189" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="19:19">
       <c r="S190" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="191" spans="19:19">
       <c r="S191" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="19:19">
       <c r="S192" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="19:19">
       <c r="S193" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="19:19">
       <c r="S194" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="19:19">
       <c r="S195" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="19:19">
       <c r="S196" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="197" spans="19:19">
       <c r="S197" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="19:19">
       <c r="S198" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" spans="19:19">
       <c r="S199" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="200" spans="19:19">
       <c r="S200" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="19:19">
       <c r="S201" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="19:19">
       <c r="S202" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="203" spans="19:19">
       <c r="S203" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="19:19">
       <c r="S204" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="205" spans="19:19">
       <c r="S205" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" spans="19:19">
       <c r="S206" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="19:19">
       <c r="S207" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="208" spans="19:19">
       <c r="S208" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="209" spans="19:19">
       <c r="S209" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="210" spans="19:19">
       <c r="S210" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="211" spans="19:19">
       <c r="S211" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="212" spans="19:19">
       <c r="S212" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="213" spans="19:19">
       <c r="S213" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="214" spans="19:19">
       <c r="S214" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="215" spans="19:19">
       <c r="S215" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="216" spans="19:19">
       <c r="S216" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="217" spans="19:19">
       <c r="S217" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="218" spans="19:19">
       <c r="S218" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="219" spans="19:19">
       <c r="S219" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="220" spans="19:19">
       <c r="S220" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="221" spans="19:19">
       <c r="S221" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="222" spans="19:19">
       <c r="S222" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="223" spans="19:19">
       <c r="S223" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="224" spans="19:19">
       <c r="S224" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" spans="19:19">
       <c r="S225" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="226" spans="19:19">
       <c r="S226" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="227" spans="19:19">
       <c r="S227" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="228" spans="19:19">
       <c r="S228" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="229" spans="19:19">
       <c r="S229" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="230" spans="19:19">
       <c r="S230" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="231" spans="19:19">
       <c r="S231" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="232" spans="19:19">
       <c r="S232" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="233" spans="19:19">
       <c r="S233" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="234" spans="19:19">
       <c r="S234" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="235" spans="19:19">
       <c r="S235" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="236" spans="19:19">
       <c r="S236" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="237" spans="19:19">
       <c r="S237" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="238" spans="19:19">
       <c r="S238" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="239" spans="19:19">
       <c r="S239" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="240" spans="19:19">
       <c r="S240" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="241" spans="19:19">
       <c r="S241" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="242" spans="19:19">
       <c r="S242" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="243" spans="19:19">
       <c r="S243" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="244" spans="19:19">
       <c r="S244" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="245" spans="19:19">
       <c r="S245" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="246" spans="19:19">
       <c r="S246" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="247" spans="19:19">
       <c r="S247" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="248" spans="19:19">
       <c r="S248" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="19:19">
       <c r="S249" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="250" spans="19:19">
       <c r="S250" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="251" spans="19:19">
       <c r="S251" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="252" spans="19:19">
       <c r="S252" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="253" spans="19:19">
       <c r="S253" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="254" spans="19:19">
       <c r="S254" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="19:19">
       <c r="S255" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="256" spans="19:19">
       <c r="S256" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="257" spans="19:19">
       <c r="S257" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="258" spans="19:19">
       <c r="S258" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="259" spans="19:19">
       <c r="S259" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="260" spans="19:19">
       <c r="S260" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="261" spans="19:19">
       <c r="S261" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="262" spans="19:19">
       <c r="S262" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="263" spans="19:19">
       <c r="S263" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="264" spans="19:19">
       <c r="S264" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="265" spans="19:19">
       <c r="S265" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="266" spans="19:19">
       <c r="S266" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="267" spans="19:19">
       <c r="S267" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="268" spans="19:19">
       <c r="S268" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="269" spans="19:19">
       <c r="S269" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="270" spans="19:19">
       <c r="S270" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="271" spans="19:19">
       <c r="S271" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="19:19">
       <c r="S272" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="19:19">
       <c r="S273" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="274" spans="19:19">
       <c r="S274" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="19:19">
       <c r="S275" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="276" spans="19:19">
       <c r="S276" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="277" spans="19:19">
       <c r="S277" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="278" spans="19:19">
       <c r="S278" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="279" spans="19:19">
       <c r="S279" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="280" spans="19:19">
       <c r="S280" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="19:19">
       <c r="S281" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="282" spans="19:19">
       <c r="S282" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="19:19">
       <c r="S283" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="284" spans="19:19">
       <c r="S284" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="285" spans="19:19">
       <c r="S285" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="286" spans="19:19">
       <c r="S286" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="287" spans="19:19">
       <c r="S287" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="288" spans="19:19">
       <c r="S288" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
   <si>
     <t>alias</t>
   </si>
@@ -892,13 +892,13 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1147,9 +1147,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1168,6 +1165,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1369,6 +1369,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1378,9 +1381,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1489,6 +1489,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1564,6 +1567,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1585,6 +1591,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1630,6 +1639,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1642,6 +1654,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1651,9 +1666,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1678,6 +1690,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1738,12 +1753,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1801,7 +1816,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1813,7 +1828,7 @@
     <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -3493,52 +3508,52 @@
         <v>298</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
@@ -3597,52 +3612,52 @@
         <v>299</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -3660,7 +3675,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="P1:S289"/>
+  <dimension ref="P1:S294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5117,6 +5132,31 @@
         <v>588</v>
       </c>
     </row>
+    <row r="290" spans="19:19">
+      <c r="S290" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="291" spans="19:19">
+      <c r="S291" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="292" spans="19:19">
+      <c r="S292" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="293" spans="19:19">
+      <c r="S293" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="294" spans="19:19">
+      <c r="S294" t="s">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="621">
   <si>
     <t>alias</t>
   </si>
@@ -892,13 +892,13 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1147,6 +1147,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1165,9 +1168,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1369,9 +1369,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1381,6 +1378,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1489,9 +1489,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1567,9 +1564,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1591,9 +1585,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1639,9 +1630,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1654,9 +1642,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1666,6 +1651,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1690,9 +1678,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1753,12 +1738,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1816,7 +1801,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1828,7 +1813,7 @@
     <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -3508,52 +3493,52 @@
         <v>298</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
@@ -3612,52 +3597,52 @@
         <v>299</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -3675,7 +3660,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="P1:S294"/>
+  <dimension ref="P1:S289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5132,31 +5117,6 @@
         <v>588</v>
       </c>
     </row>
-    <row r="290" spans="19:19">
-      <c r="S290" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="291" spans="19:19">
-      <c r="S291" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="292" spans="19:19">
-      <c r="S292" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="293" spans="19:19">
-      <c r="S293" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="294" spans="19:19">
-      <c r="S294" t="s">
-        <v>593</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -17,9 +17,9 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="environmentalsample">'cv_sample'!$P$1:$P$2</definedName>
+    <definedName name="environmentalsample">'cv_sample'!$R$1:$R$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="625">
   <si>
     <t>alias</t>
   </si>
@@ -836,6 +836,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3428,7 +3440,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3437,7 +3449,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3484,19 +3496,19 @@
         <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>298</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>589</v>
+        <v>300</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>591</v>
+        <v>302</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>593</v>
@@ -3540,8 +3552,14 @@
       <c r="AH1" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" ht="150" customHeight="1">
+      <c r="AI1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3588,19 +3606,19 @@
         <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>299</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>590</v>
+        <v>301</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>592</v>
+        <v>303</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>594</v>
@@ -3644,13 +3662,19 @@
       <c r="AH2" s="2" t="s">
         <v>620</v>
       </c>
+      <c r="AI2" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>624</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
       <formula1>environmentalsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3660,1461 +3684,1461 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="P1:S289"/>
+  <dimension ref="R1:U289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="16:19">
-      <c r="P1" t="s">
-        <v>292</v>
-      </c>
-      <c r="S1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="16:19">
-      <c r="P2" t="s">
-        <v>293</v>
-      </c>
-      <c r="S2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="16:19">
-      <c r="S3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="16:19">
-      <c r="S4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="16:19">
-      <c r="S5" t="s">
+    <row r="1" spans="18:21">
+      <c r="R1" t="s">
+        <v>296</v>
+      </c>
+      <c r="U1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="16:19">
-      <c r="S6" t="s">
+    <row r="2" spans="18:21">
+      <c r="R2" t="s">
+        <v>297</v>
+      </c>
+      <c r="U2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="16:19">
-      <c r="S7" t="s">
+    <row r="3" spans="18:21">
+      <c r="U3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="16:19">
-      <c r="S8" t="s">
+    <row r="4" spans="18:21">
+      <c r="U4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="16:19">
-      <c r="S9" t="s">
+    <row r="5" spans="18:21">
+      <c r="U5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="16:19">
-      <c r="S10" t="s">
+    <row r="6" spans="18:21">
+      <c r="U6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="16:19">
-      <c r="S11" t="s">
+    <row r="7" spans="18:21">
+      <c r="U7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="16:19">
-      <c r="S12" t="s">
+    <row r="8" spans="18:21">
+      <c r="U8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="16:19">
-      <c r="S13" t="s">
+    <row r="9" spans="18:21">
+      <c r="U9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="14" spans="16:19">
-      <c r="S14" t="s">
+    <row r="10" spans="18:21">
+      <c r="U10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="16:19">
-      <c r="S15" t="s">
+    <row r="11" spans="18:21">
+      <c r="U11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="16:19">
-      <c r="S16" t="s">
+    <row r="12" spans="18:21">
+      <c r="U12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="19:19">
-      <c r="S17" t="s">
+    <row r="13" spans="18:21">
+      <c r="U13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="19:19">
-      <c r="S18" t="s">
+    <row r="14" spans="18:21">
+      <c r="U14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="19:19">
-      <c r="S19" t="s">
+    <row r="15" spans="18:21">
+      <c r="U15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="19:19">
-      <c r="S20" t="s">
+    <row r="16" spans="18:21">
+      <c r="U16" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="19:19">
-      <c r="S21" t="s">
+    <row r="17" spans="21:21">
+      <c r="U17" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="19:19">
-      <c r="S22" t="s">
+    <row r="18" spans="21:21">
+      <c r="U18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="19:19">
-      <c r="S23" t="s">
+    <row r="19" spans="21:21">
+      <c r="U19" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="19:19">
-      <c r="S24" t="s">
+    <row r="20" spans="21:21">
+      <c r="U20" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="19:19">
-      <c r="S25" t="s">
+    <row r="21" spans="21:21">
+      <c r="U21" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="19:19">
-      <c r="S26" t="s">
+    <row r="22" spans="21:21">
+      <c r="U22" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="19:19">
-      <c r="S27" t="s">
+    <row r="23" spans="21:21">
+      <c r="U23" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="19:19">
-      <c r="S28" t="s">
+    <row r="24" spans="21:21">
+      <c r="U24" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="19:19">
-      <c r="S29" t="s">
+    <row r="25" spans="21:21">
+      <c r="U25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="19:19">
-      <c r="S30" t="s">
+    <row r="26" spans="21:21">
+      <c r="U26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="19:19">
-      <c r="S31" t="s">
+    <row r="27" spans="21:21">
+      <c r="U27" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="19:19">
-      <c r="S32" t="s">
+    <row r="28" spans="21:21">
+      <c r="U28" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="19:19">
-      <c r="S33" t="s">
+    <row r="29" spans="21:21">
+      <c r="U29" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="19:19">
-      <c r="S34" t="s">
+    <row r="30" spans="21:21">
+      <c r="U30" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="19:19">
-      <c r="S35" t="s">
+    <row r="31" spans="21:21">
+      <c r="U31" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="19:19">
-      <c r="S36" t="s">
+    <row r="32" spans="21:21">
+      <c r="U32" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="19:19">
-      <c r="S37" t="s">
+    <row r="33" spans="21:21">
+      <c r="U33" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="19:19">
-      <c r="S38" t="s">
+    <row r="34" spans="21:21">
+      <c r="U34" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="19:19">
-      <c r="S39" t="s">
+    <row r="35" spans="21:21">
+      <c r="U35" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="19:19">
-      <c r="S40" t="s">
+    <row r="36" spans="21:21">
+      <c r="U36" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="41" spans="19:19">
-      <c r="S41" t="s">
+    <row r="37" spans="21:21">
+      <c r="U37" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="19:19">
-      <c r="S42" t="s">
+    <row r="38" spans="21:21">
+      <c r="U38" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="19:19">
-      <c r="S43" t="s">
+    <row r="39" spans="21:21">
+      <c r="U39" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="19:19">
-      <c r="S44" t="s">
+    <row r="40" spans="21:21">
+      <c r="U40" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="19:19">
-      <c r="S45" t="s">
+    <row r="41" spans="21:21">
+      <c r="U41" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="19:19">
-      <c r="S46" t="s">
+    <row r="42" spans="21:21">
+      <c r="U42" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="19:19">
-      <c r="S47" t="s">
+    <row r="43" spans="21:21">
+      <c r="U43" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="48" spans="19:19">
-      <c r="S48" t="s">
+    <row r="44" spans="21:21">
+      <c r="U44" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="19:19">
-      <c r="S49" t="s">
+    <row r="45" spans="21:21">
+      <c r="U45" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="19:19">
-      <c r="S50" t="s">
+    <row r="46" spans="21:21">
+      <c r="U46" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="19:19">
-      <c r="S51" t="s">
+    <row r="47" spans="21:21">
+      <c r="U47" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="19:19">
-      <c r="S52" t="s">
+    <row r="48" spans="21:21">
+      <c r="U48" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="19:19">
-      <c r="S53" t="s">
+    <row r="49" spans="21:21">
+      <c r="U49" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="54" spans="19:19">
-      <c r="S54" t="s">
+    <row r="50" spans="21:21">
+      <c r="U50" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="55" spans="19:19">
-      <c r="S55" t="s">
+    <row r="51" spans="21:21">
+      <c r="U51" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="56" spans="19:19">
-      <c r="S56" t="s">
+    <row r="52" spans="21:21">
+      <c r="U52" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="19:19">
-      <c r="S57" t="s">
+    <row r="53" spans="21:21">
+      <c r="U53" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="19:19">
-      <c r="S58" t="s">
+    <row r="54" spans="21:21">
+      <c r="U54" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="19:19">
-      <c r="S59" t="s">
+    <row r="55" spans="21:21">
+      <c r="U55" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="19:19">
-      <c r="S60" t="s">
+    <row r="56" spans="21:21">
+      <c r="U56" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="19:19">
-      <c r="S61" t="s">
+    <row r="57" spans="21:21">
+      <c r="U57" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="19:19">
-      <c r="S62" t="s">
+    <row r="58" spans="21:21">
+      <c r="U58" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="63" spans="19:19">
-      <c r="S63" t="s">
+    <row r="59" spans="21:21">
+      <c r="U59" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="64" spans="19:19">
-      <c r="S64" t="s">
+    <row r="60" spans="21:21">
+      <c r="U60" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="19:19">
-      <c r="S65" t="s">
+    <row r="61" spans="21:21">
+      <c r="U61" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="66" spans="19:19">
-      <c r="S66" t="s">
+    <row r="62" spans="21:21">
+      <c r="U62" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="19:19">
-      <c r="S67" t="s">
+    <row r="63" spans="21:21">
+      <c r="U63" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="19:19">
-      <c r="S68" t="s">
+    <row r="64" spans="21:21">
+      <c r="U64" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="69" spans="19:19">
-      <c r="S69" t="s">
+    <row r="65" spans="21:21">
+      <c r="U65" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="19:19">
-      <c r="S70" t="s">
+    <row r="66" spans="21:21">
+      <c r="U66" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="19:19">
-      <c r="S71" t="s">
+    <row r="67" spans="21:21">
+      <c r="U67" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="72" spans="19:19">
-      <c r="S72" t="s">
+    <row r="68" spans="21:21">
+      <c r="U68" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="19:19">
-      <c r="S73" t="s">
+    <row r="69" spans="21:21">
+      <c r="U69" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="19:19">
-      <c r="S74" t="s">
+    <row r="70" spans="21:21">
+      <c r="U70" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="19:19">
-      <c r="S75" t="s">
+    <row r="71" spans="21:21">
+      <c r="U71" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="19:19">
-      <c r="S76" t="s">
+    <row r="72" spans="21:21">
+      <c r="U72" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="19:19">
-      <c r="S77" t="s">
+    <row r="73" spans="21:21">
+      <c r="U73" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="19:19">
-      <c r="S78" t="s">
+    <row r="74" spans="21:21">
+      <c r="U74" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="79" spans="19:19">
-      <c r="S79" t="s">
+    <row r="75" spans="21:21">
+      <c r="U75" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="19:19">
-      <c r="S80" t="s">
+    <row r="76" spans="21:21">
+      <c r="U76" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="81" spans="19:19">
-      <c r="S81" t="s">
+    <row r="77" spans="21:21">
+      <c r="U77" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="19:19">
-      <c r="S82" t="s">
+    <row r="78" spans="21:21">
+      <c r="U78" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="83" spans="19:19">
-      <c r="S83" t="s">
+    <row r="79" spans="21:21">
+      <c r="U79" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="19:19">
-      <c r="S84" t="s">
+    <row r="80" spans="21:21">
+      <c r="U80" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="85" spans="19:19">
-      <c r="S85" t="s">
+    <row r="81" spans="21:21">
+      <c r="U81" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="19:19">
-      <c r="S86" t="s">
+    <row r="82" spans="21:21">
+      <c r="U82" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="19:19">
-      <c r="S87" t="s">
+    <row r="83" spans="21:21">
+      <c r="U83" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="19:19">
-      <c r="S88" t="s">
+    <row r="84" spans="21:21">
+      <c r="U84" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="19:19">
-      <c r="S89" t="s">
+    <row r="85" spans="21:21">
+      <c r="U85" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="90" spans="19:19">
-      <c r="S90" t="s">
+    <row r="86" spans="21:21">
+      <c r="U86" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="19:19">
-      <c r="S91" t="s">
+    <row r="87" spans="21:21">
+      <c r="U87" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="19:19">
-      <c r="S92" t="s">
+    <row r="88" spans="21:21">
+      <c r="U88" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="19:19">
-      <c r="S93" t="s">
+    <row r="89" spans="21:21">
+      <c r="U89" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="19:19">
-      <c r="S94" t="s">
+    <row r="90" spans="21:21">
+      <c r="U90" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="95" spans="19:19">
-      <c r="S95" t="s">
+    <row r="91" spans="21:21">
+      <c r="U91" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="96" spans="19:19">
-      <c r="S96" t="s">
+    <row r="92" spans="21:21">
+      <c r="U92" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="97" spans="19:19">
-      <c r="S97" t="s">
+    <row r="93" spans="21:21">
+      <c r="U93" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="98" spans="19:19">
-      <c r="S98" t="s">
+    <row r="94" spans="21:21">
+      <c r="U94" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="19:19">
-      <c r="S99" t="s">
+    <row r="95" spans="21:21">
+      <c r="U95" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="19:19">
-      <c r="S100" t="s">
+    <row r="96" spans="21:21">
+      <c r="U96" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="19:19">
-      <c r="S101" t="s">
+    <row r="97" spans="21:21">
+      <c r="U97" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="19:19">
-      <c r="S102" t="s">
+    <row r="98" spans="21:21">
+      <c r="U98" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="103" spans="19:19">
-      <c r="S103" t="s">
+    <row r="99" spans="21:21">
+      <c r="U99" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="19:19">
-      <c r="S104" t="s">
+    <row r="100" spans="21:21">
+      <c r="U100" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="19:19">
-      <c r="S105" t="s">
+    <row r="101" spans="21:21">
+      <c r="U101" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="106" spans="19:19">
-      <c r="S106" t="s">
+    <row r="102" spans="21:21">
+      <c r="U102" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="107" spans="19:19">
-      <c r="S107" t="s">
+    <row r="103" spans="21:21">
+      <c r="U103" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="19:19">
-      <c r="S108" t="s">
+    <row r="104" spans="21:21">
+      <c r="U104" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="19:19">
-      <c r="S109" t="s">
+    <row r="105" spans="21:21">
+      <c r="U105" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="19:19">
-      <c r="S110" t="s">
+    <row r="106" spans="21:21">
+      <c r="U106" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="111" spans="19:19">
-      <c r="S111" t="s">
+    <row r="107" spans="21:21">
+      <c r="U107" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="19:19">
-      <c r="S112" t="s">
+    <row r="108" spans="21:21">
+      <c r="U108" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="19:19">
-      <c r="S113" t="s">
+    <row r="109" spans="21:21">
+      <c r="U109" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="114" spans="19:19">
-      <c r="S114" t="s">
+    <row r="110" spans="21:21">
+      <c r="U110" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="115" spans="19:19">
-      <c r="S115" t="s">
+    <row r="111" spans="21:21">
+      <c r="U111" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="19:19">
-      <c r="S116" t="s">
+    <row r="112" spans="21:21">
+      <c r="U112" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="19:19">
-      <c r="S117" t="s">
+    <row r="113" spans="21:21">
+      <c r="U113" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="118" spans="19:19">
-      <c r="S118" t="s">
+    <row r="114" spans="21:21">
+      <c r="U114" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="119" spans="19:19">
-      <c r="S119" t="s">
+    <row r="115" spans="21:21">
+      <c r="U115" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="120" spans="19:19">
-      <c r="S120" t="s">
+    <row r="116" spans="21:21">
+      <c r="U116" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="121" spans="19:19">
-      <c r="S121" t="s">
+    <row r="117" spans="21:21">
+      <c r="U117" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="122" spans="19:19">
-      <c r="S122" t="s">
+    <row r="118" spans="21:21">
+      <c r="U118" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="123" spans="19:19">
-      <c r="S123" t="s">
+    <row r="119" spans="21:21">
+      <c r="U119" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="124" spans="19:19">
-      <c r="S124" t="s">
+    <row r="120" spans="21:21">
+      <c r="U120" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="125" spans="19:19">
-      <c r="S125" t="s">
+    <row r="121" spans="21:21">
+      <c r="U121" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="126" spans="19:19">
-      <c r="S126" t="s">
+    <row r="122" spans="21:21">
+      <c r="U122" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="127" spans="19:19">
-      <c r="S127" t="s">
+    <row r="123" spans="21:21">
+      <c r="U123" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="19:19">
-      <c r="S128" t="s">
+    <row r="124" spans="21:21">
+      <c r="U124" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="19:19">
-      <c r="S129" t="s">
+    <row r="125" spans="21:21">
+      <c r="U125" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="19:19">
-      <c r="S130" t="s">
+    <row r="126" spans="21:21">
+      <c r="U126" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="131" spans="19:19">
-      <c r="S131" t="s">
+    <row r="127" spans="21:21">
+      <c r="U127" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="132" spans="19:19">
-      <c r="S132" t="s">
+    <row r="128" spans="21:21">
+      <c r="U128" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="133" spans="19:19">
-      <c r="S133" t="s">
+    <row r="129" spans="21:21">
+      <c r="U129" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="19:19">
-      <c r="S134" t="s">
+    <row r="130" spans="21:21">
+      <c r="U130" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="135" spans="19:19">
-      <c r="S135" t="s">
+    <row r="131" spans="21:21">
+      <c r="U131" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="19:19">
-      <c r="S136" t="s">
+    <row r="132" spans="21:21">
+      <c r="U132" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="19:19">
-      <c r="S137" t="s">
+    <row r="133" spans="21:21">
+      <c r="U133" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="138" spans="19:19">
-      <c r="S138" t="s">
+    <row r="134" spans="21:21">
+      <c r="U134" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="139" spans="19:19">
-      <c r="S139" t="s">
+    <row r="135" spans="21:21">
+      <c r="U135" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="140" spans="19:19">
-      <c r="S140" t="s">
+    <row r="136" spans="21:21">
+      <c r="U136" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="141" spans="19:19">
-      <c r="S141" t="s">
+    <row r="137" spans="21:21">
+      <c r="U137" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="19:19">
-      <c r="S142" t="s">
+    <row r="138" spans="21:21">
+      <c r="U138" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="19:19">
-      <c r="S143" t="s">
+    <row r="139" spans="21:21">
+      <c r="U139" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="144" spans="19:19">
-      <c r="S144" t="s">
+    <row r="140" spans="21:21">
+      <c r="U140" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="19:19">
-      <c r="S145" t="s">
+    <row r="141" spans="21:21">
+      <c r="U141" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="146" spans="19:19">
-      <c r="S146" t="s">
+    <row r="142" spans="21:21">
+      <c r="U142" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="147" spans="19:19">
-      <c r="S147" t="s">
+    <row r="143" spans="21:21">
+      <c r="U143" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="19:19">
-      <c r="S148" t="s">
+    <row r="144" spans="21:21">
+      <c r="U144" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="149" spans="19:19">
-      <c r="S149" t="s">
+    <row r="145" spans="21:21">
+      <c r="U145" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="19:19">
-      <c r="S150" t="s">
+    <row r="146" spans="21:21">
+      <c r="U146" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="151" spans="19:19">
-      <c r="S151" t="s">
+    <row r="147" spans="21:21">
+      <c r="U147" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="152" spans="19:19">
-      <c r="S152" t="s">
+    <row r="148" spans="21:21">
+      <c r="U148" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="153" spans="19:19">
-      <c r="S153" t="s">
+    <row r="149" spans="21:21">
+      <c r="U149" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="154" spans="19:19">
-      <c r="S154" t="s">
+    <row r="150" spans="21:21">
+      <c r="U150" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="155" spans="19:19">
-      <c r="S155" t="s">
+    <row r="151" spans="21:21">
+      <c r="U151" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="156" spans="19:19">
-      <c r="S156" t="s">
+    <row r="152" spans="21:21">
+      <c r="U152" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="157" spans="19:19">
-      <c r="S157" t="s">
+    <row r="153" spans="21:21">
+      <c r="U153" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="158" spans="19:19">
-      <c r="S158" t="s">
+    <row r="154" spans="21:21">
+      <c r="U154" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="159" spans="19:19">
-      <c r="S159" t="s">
+    <row r="155" spans="21:21">
+      <c r="U155" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="160" spans="19:19">
-      <c r="S160" t="s">
+    <row r="156" spans="21:21">
+      <c r="U156" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="161" spans="19:19">
-      <c r="S161" t="s">
+    <row r="157" spans="21:21">
+      <c r="U157" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="19:19">
-      <c r="S162" t="s">
+    <row r="158" spans="21:21">
+      <c r="U158" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="163" spans="19:19">
-      <c r="S163" t="s">
+    <row r="159" spans="21:21">
+      <c r="U159" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="164" spans="19:19">
-      <c r="S164" t="s">
+    <row r="160" spans="21:21">
+      <c r="U160" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="19:19">
-      <c r="S165" t="s">
+    <row r="161" spans="21:21">
+      <c r="U161" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="166" spans="19:19">
-      <c r="S166" t="s">
+    <row r="162" spans="21:21">
+      <c r="U162" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="167" spans="19:19">
-      <c r="S167" t="s">
+    <row r="163" spans="21:21">
+      <c r="U163" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="168" spans="19:19">
-      <c r="S168" t="s">
+    <row r="164" spans="21:21">
+      <c r="U164" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="169" spans="19:19">
-      <c r="S169" t="s">
+    <row r="165" spans="21:21">
+      <c r="U165" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="170" spans="19:19">
-      <c r="S170" t="s">
+    <row r="166" spans="21:21">
+      <c r="U166" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="19:19">
-      <c r="S171" t="s">
+    <row r="167" spans="21:21">
+      <c r="U167" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="19:19">
-      <c r="S172" t="s">
+    <row r="168" spans="21:21">
+      <c r="U168" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="173" spans="19:19">
-      <c r="S173" t="s">
+    <row r="169" spans="21:21">
+      <c r="U169" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="174" spans="19:19">
-      <c r="S174" t="s">
+    <row r="170" spans="21:21">
+      <c r="U170" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="175" spans="19:19">
-      <c r="S175" t="s">
+    <row r="171" spans="21:21">
+      <c r="U171" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="176" spans="19:19">
-      <c r="S176" t="s">
+    <row r="172" spans="21:21">
+      <c r="U172" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="177" spans="19:19">
-      <c r="S177" t="s">
+    <row r="173" spans="21:21">
+      <c r="U173" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="178" spans="19:19">
-      <c r="S178" t="s">
+    <row r="174" spans="21:21">
+      <c r="U174" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="179" spans="19:19">
-      <c r="S179" t="s">
+    <row r="175" spans="21:21">
+      <c r="U175" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="180" spans="19:19">
-      <c r="S180" t="s">
+    <row r="176" spans="21:21">
+      <c r="U176" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="181" spans="19:19">
-      <c r="S181" t="s">
+    <row r="177" spans="21:21">
+      <c r="U177" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="182" spans="19:19">
-      <c r="S182" t="s">
+    <row r="178" spans="21:21">
+      <c r="U178" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="183" spans="19:19">
-      <c r="S183" t="s">
+    <row r="179" spans="21:21">
+      <c r="U179" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="184" spans="19:19">
-      <c r="S184" t="s">
+    <row r="180" spans="21:21">
+      <c r="U180" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="185" spans="19:19">
-      <c r="S185" t="s">
+    <row r="181" spans="21:21">
+      <c r="U181" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="186" spans="19:19">
-      <c r="S186" t="s">
+    <row r="182" spans="21:21">
+      <c r="U182" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="187" spans="19:19">
-      <c r="S187" t="s">
+    <row r="183" spans="21:21">
+      <c r="U183" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="188" spans="19:19">
-      <c r="S188" t="s">
+    <row r="184" spans="21:21">
+      <c r="U184" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="189" spans="19:19">
-      <c r="S189" t="s">
+    <row r="185" spans="21:21">
+      <c r="U185" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="190" spans="19:19">
-      <c r="S190" t="s">
+    <row r="186" spans="21:21">
+      <c r="U186" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="191" spans="19:19">
-      <c r="S191" t="s">
+    <row r="187" spans="21:21">
+      <c r="U187" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="192" spans="19:19">
-      <c r="S192" t="s">
+    <row r="188" spans="21:21">
+      <c r="U188" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="193" spans="19:19">
-      <c r="S193" t="s">
+    <row r="189" spans="21:21">
+      <c r="U189" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="194" spans="19:19">
-      <c r="S194" t="s">
+    <row r="190" spans="21:21">
+      <c r="U190" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="195" spans="19:19">
-      <c r="S195" t="s">
+    <row r="191" spans="21:21">
+      <c r="U191" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="196" spans="19:19">
-      <c r="S196" t="s">
+    <row r="192" spans="21:21">
+      <c r="U192" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="197" spans="19:19">
-      <c r="S197" t="s">
+    <row r="193" spans="21:21">
+      <c r="U193" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="198" spans="19:19">
-      <c r="S198" t="s">
+    <row r="194" spans="21:21">
+      <c r="U194" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="199" spans="19:19">
-      <c r="S199" t="s">
+    <row r="195" spans="21:21">
+      <c r="U195" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="200" spans="19:19">
-      <c r="S200" t="s">
+    <row r="196" spans="21:21">
+      <c r="U196" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="201" spans="19:19">
-      <c r="S201" t="s">
+    <row r="197" spans="21:21">
+      <c r="U197" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="202" spans="19:19">
-      <c r="S202" t="s">
+    <row r="198" spans="21:21">
+      <c r="U198" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="203" spans="19:19">
-      <c r="S203" t="s">
+    <row r="199" spans="21:21">
+      <c r="U199" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="204" spans="19:19">
-      <c r="S204" t="s">
+    <row r="200" spans="21:21">
+      <c r="U200" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="205" spans="19:19">
-      <c r="S205" t="s">
+    <row r="201" spans="21:21">
+      <c r="U201" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="206" spans="19:19">
-      <c r="S206" t="s">
+    <row r="202" spans="21:21">
+      <c r="U202" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="207" spans="19:19">
-      <c r="S207" t="s">
+    <row r="203" spans="21:21">
+      <c r="U203" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="208" spans="19:19">
-      <c r="S208" t="s">
+    <row r="204" spans="21:21">
+      <c r="U204" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="209" spans="19:19">
-      <c r="S209" t="s">
+    <row r="205" spans="21:21">
+      <c r="U205" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="210" spans="19:19">
-      <c r="S210" t="s">
+    <row r="206" spans="21:21">
+      <c r="U206" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="211" spans="19:19">
-      <c r="S211" t="s">
+    <row r="207" spans="21:21">
+      <c r="U207" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="212" spans="19:19">
-      <c r="S212" t="s">
+    <row r="208" spans="21:21">
+      <c r="U208" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="213" spans="19:19">
-      <c r="S213" t="s">
+    <row r="209" spans="21:21">
+      <c r="U209" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="214" spans="19:19">
-      <c r="S214" t="s">
+    <row r="210" spans="21:21">
+      <c r="U210" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="215" spans="19:19">
-      <c r="S215" t="s">
+    <row r="211" spans="21:21">
+      <c r="U211" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="216" spans="19:19">
-      <c r="S216" t="s">
+    <row r="212" spans="21:21">
+      <c r="U212" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="217" spans="19:19">
-      <c r="S217" t="s">
+    <row r="213" spans="21:21">
+      <c r="U213" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="218" spans="19:19">
-      <c r="S218" t="s">
+    <row r="214" spans="21:21">
+      <c r="U214" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="219" spans="19:19">
-      <c r="S219" t="s">
+    <row r="215" spans="21:21">
+      <c r="U215" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="220" spans="19:19">
-      <c r="S220" t="s">
+    <row r="216" spans="21:21">
+      <c r="U216" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="221" spans="19:19">
-      <c r="S221" t="s">
+    <row r="217" spans="21:21">
+      <c r="U217" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="222" spans="19:19">
-      <c r="S222" t="s">
+    <row r="218" spans="21:21">
+      <c r="U218" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="223" spans="19:19">
-      <c r="S223" t="s">
+    <row r="219" spans="21:21">
+      <c r="U219" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="224" spans="19:19">
-      <c r="S224" t="s">
+    <row r="220" spans="21:21">
+      <c r="U220" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="225" spans="19:19">
-      <c r="S225" t="s">
+    <row r="221" spans="21:21">
+      <c r="U221" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="226" spans="19:19">
-      <c r="S226" t="s">
+    <row r="222" spans="21:21">
+      <c r="U222" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="227" spans="19:19">
-      <c r="S227" t="s">
+    <row r="223" spans="21:21">
+      <c r="U223" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="228" spans="19:19">
-      <c r="S228" t="s">
+    <row r="224" spans="21:21">
+      <c r="U224" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="229" spans="19:19">
-      <c r="S229" t="s">
+    <row r="225" spans="21:21">
+      <c r="U225" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="230" spans="19:19">
-      <c r="S230" t="s">
+    <row r="226" spans="21:21">
+      <c r="U226" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="231" spans="19:19">
-      <c r="S231" t="s">
+    <row r="227" spans="21:21">
+      <c r="U227" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="232" spans="19:19">
-      <c r="S232" t="s">
+    <row r="228" spans="21:21">
+      <c r="U228" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="233" spans="19:19">
-      <c r="S233" t="s">
+    <row r="229" spans="21:21">
+      <c r="U229" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="234" spans="19:19">
-      <c r="S234" t="s">
+    <row r="230" spans="21:21">
+      <c r="U230" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="235" spans="19:19">
-      <c r="S235" t="s">
+    <row r="231" spans="21:21">
+      <c r="U231" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="236" spans="19:19">
-      <c r="S236" t="s">
+    <row r="232" spans="21:21">
+      <c r="U232" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="237" spans="19:19">
-      <c r="S237" t="s">
+    <row r="233" spans="21:21">
+      <c r="U233" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="238" spans="19:19">
-      <c r="S238" t="s">
+    <row r="234" spans="21:21">
+      <c r="U234" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="239" spans="19:19">
-      <c r="S239" t="s">
+    <row r="235" spans="21:21">
+      <c r="U235" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="240" spans="19:19">
-      <c r="S240" t="s">
+    <row r="236" spans="21:21">
+      <c r="U236" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="241" spans="19:19">
-      <c r="S241" t="s">
+    <row r="237" spans="21:21">
+      <c r="U237" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="242" spans="19:19">
-      <c r="S242" t="s">
+    <row r="238" spans="21:21">
+      <c r="U238" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="243" spans="19:19">
-      <c r="S243" t="s">
+    <row r="239" spans="21:21">
+      <c r="U239" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="244" spans="19:19">
-      <c r="S244" t="s">
+    <row r="240" spans="21:21">
+      <c r="U240" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="245" spans="19:19">
-      <c r="S245" t="s">
+    <row r="241" spans="21:21">
+      <c r="U241" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="246" spans="19:19">
-      <c r="S246" t="s">
+    <row r="242" spans="21:21">
+      <c r="U242" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="247" spans="19:19">
-      <c r="S247" t="s">
+    <row r="243" spans="21:21">
+      <c r="U243" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="248" spans="19:19">
-      <c r="S248" t="s">
+    <row r="244" spans="21:21">
+      <c r="U244" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="249" spans="19:19">
-      <c r="S249" t="s">
+    <row r="245" spans="21:21">
+      <c r="U245" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="250" spans="19:19">
-      <c r="S250" t="s">
+    <row r="246" spans="21:21">
+      <c r="U246" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="251" spans="19:19">
-      <c r="S251" t="s">
+    <row r="247" spans="21:21">
+      <c r="U247" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="252" spans="19:19">
-      <c r="S252" t="s">
+    <row r="248" spans="21:21">
+      <c r="U248" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="253" spans="19:19">
-      <c r="S253" t="s">
+    <row r="249" spans="21:21">
+      <c r="U249" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="254" spans="19:19">
-      <c r="S254" t="s">
+    <row r="250" spans="21:21">
+      <c r="U250" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="255" spans="19:19">
-      <c r="S255" t="s">
+    <row r="251" spans="21:21">
+      <c r="U251" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="256" spans="19:19">
-      <c r="S256" t="s">
+    <row r="252" spans="21:21">
+      <c r="U252" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="257" spans="19:19">
-      <c r="S257" t="s">
+    <row r="253" spans="21:21">
+      <c r="U253" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="258" spans="19:19">
-      <c r="S258" t="s">
+    <row r="254" spans="21:21">
+      <c r="U254" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="259" spans="19:19">
-      <c r="S259" t="s">
+    <row r="255" spans="21:21">
+      <c r="U255" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="260" spans="19:19">
-      <c r="S260" t="s">
+    <row r="256" spans="21:21">
+      <c r="U256" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="261" spans="19:19">
-      <c r="S261" t="s">
+    <row r="257" spans="21:21">
+      <c r="U257" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="262" spans="19:19">
-      <c r="S262" t="s">
+    <row r="258" spans="21:21">
+      <c r="U258" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="263" spans="19:19">
-      <c r="S263" t="s">
+    <row r="259" spans="21:21">
+      <c r="U259" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="264" spans="19:19">
-      <c r="S264" t="s">
+    <row r="260" spans="21:21">
+      <c r="U260" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="265" spans="19:19">
-      <c r="S265" t="s">
+    <row r="261" spans="21:21">
+      <c r="U261" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="266" spans="19:19">
-      <c r="S266" t="s">
+    <row r="262" spans="21:21">
+      <c r="U262" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="267" spans="19:19">
-      <c r="S267" t="s">
+    <row r="263" spans="21:21">
+      <c r="U263" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="268" spans="19:19">
-      <c r="S268" t="s">
+    <row r="264" spans="21:21">
+      <c r="U264" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="269" spans="19:19">
-      <c r="S269" t="s">
+    <row r="265" spans="21:21">
+      <c r="U265" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="270" spans="19:19">
-      <c r="S270" t="s">
+    <row r="266" spans="21:21">
+      <c r="U266" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="271" spans="19:19">
-      <c r="S271" t="s">
+    <row r="267" spans="21:21">
+      <c r="U267" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="272" spans="19:19">
-      <c r="S272" t="s">
+    <row r="268" spans="21:21">
+      <c r="U268" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="273" spans="19:19">
-      <c r="S273" t="s">
+    <row r="269" spans="21:21">
+      <c r="U269" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="274" spans="19:19">
-      <c r="S274" t="s">
+    <row r="270" spans="21:21">
+      <c r="U270" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="275" spans="19:19">
-      <c r="S275" t="s">
+    <row r="271" spans="21:21">
+      <c r="U271" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="276" spans="19:19">
-      <c r="S276" t="s">
+    <row r="272" spans="21:21">
+      <c r="U272" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="277" spans="19:19">
-      <c r="S277" t="s">
+    <row r="273" spans="21:21">
+      <c r="U273" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="278" spans="19:19">
-      <c r="S278" t="s">
+    <row r="274" spans="21:21">
+      <c r="U274" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="279" spans="19:19">
-      <c r="S279" t="s">
+    <row r="275" spans="21:21">
+      <c r="U275" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="280" spans="19:19">
-      <c r="S280" t="s">
+    <row r="276" spans="21:21">
+      <c r="U276" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="281" spans="19:19">
-      <c r="S281" t="s">
+    <row r="277" spans="21:21">
+      <c r="U277" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="282" spans="19:19">
-      <c r="S282" t="s">
+    <row r="278" spans="21:21">
+      <c r="U278" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="283" spans="19:19">
-      <c r="S283" t="s">
+    <row r="279" spans="21:21">
+      <c r="U279" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="284" spans="19:19">
-      <c r="S284" t="s">
+    <row r="280" spans="21:21">
+      <c r="U280" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="285" spans="19:19">
-      <c r="S285" t="s">
+    <row r="281" spans="21:21">
+      <c r="U281" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="286" spans="19:19">
-      <c r="S286" t="s">
+    <row r="282" spans="21:21">
+      <c r="U282" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="287" spans="19:19">
-      <c r="S287" t="s">
+    <row r="283" spans="21:21">
+      <c r="U283" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="288" spans="19:19">
-      <c r="S288" t="s">
+    <row r="284" spans="21:21">
+      <c r="U284" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="289" spans="19:19">
-      <c r="S289" t="s">
+    <row r="285" spans="21:21">
+      <c r="U285" t="s">
         <v>588</v>
+      </c>
+    </row>
+    <row r="286" spans="21:21">
+      <c r="U286" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="287" spans="21:21">
+      <c r="U287" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="288" spans="21:21">
+      <c r="U288" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="289" spans="21:21">
+      <c r="U289" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000011/metadata_template_ERC000011.xlsx
+++ b/templates/ERC000011/metadata_template_ERC000011.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="environmentalsample">'cv_sample'!$R$1:$R$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$U$1:$U$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="630">
   <si>
     <t>alias</t>
   </si>
@@ -1159,9 +1159,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1180,6 +1177,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1381,6 +1381,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1390,9 +1393,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1432,7 +1432,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1501,6 +1501,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1576,6 +1579,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1597,6 +1603,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1642,6 +1651,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1654,6 +1666,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1663,9 +1678,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1690,6 +1702,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1750,10 +1765,10 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -3511,52 +3526,52 @@
         <v>302</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="150" customHeight="1">
@@ -3621,52 +3636,52 @@
         <v>303</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -3684,7 +3699,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="R1:U289"/>
+  <dimension ref="R1:U294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5141,6 +5156,31 @@
         <v>592</v>
       </c>
     </row>
+    <row r="290" spans="21:21">
+      <c r="U290" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="291" spans="21:21">
+      <c r="U291" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="292" spans="21:21">
+      <c r="U292" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="293" spans="21:21">
+      <c r="U293" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="294" spans="21:21">
+      <c r="U294" t="s">
+        <v>597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
